--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_chemical_specialty.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_chemical_specialty.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="asx_zno" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,112 +593,115 @@
         </is>
       </c>
       <c r="G2">
-        <v>-1.776381909547739</v>
+        <v>0.5564685880829016</v>
       </c>
       <c r="H2">
-        <v>-1.776381909547739</v>
+        <v>0.5564685880829016</v>
       </c>
       <c r="I2">
-        <v>-1.687908923960312</v>
+        <v>0.5558613989637305</v>
       </c>
       <c r="J2">
-        <v>-1.687908923960312</v>
+        <v>0.5049074373920552</v>
       </c>
       <c r="K2">
-        <v>-2.155</v>
+        <v>10.326</v>
       </c>
       <c r="L2">
-        <v>-1.804857621440536</v>
+        <v>0.4179889896373057</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.4461</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.02039957378795951</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0.3337303893085415</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>3.4461</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.02039957378795951</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0.3337303893085415</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>2.153</v>
+        <v>6.719</v>
       </c>
       <c r="V2">
-        <v>0.02847130388786036</v>
+        <v>0.03977387083407329</v>
       </c>
       <c r="W2">
-        <v>-0.265758406240118</v>
+        <v>2.014823741746819</v>
       </c>
       <c r="X2">
-        <v>0.07029759879744385</v>
+        <v>0.05602049240319842</v>
       </c>
       <c r="Y2">
-        <v>-0.3360560050375619</v>
+        <v>1.95880324934362</v>
       </c>
       <c r="Z2">
-        <v>0.3258007796475881</v>
+        <v>6.368651714359371</v>
       </c>
       <c r="AA2">
-        <v>-2.718135679076451</v>
+        <v>10.43389341923569</v>
       </c>
       <c r="AB2">
-        <v>0.07030448491997152</v>
+        <v>0.05601501672857647</v>
       </c>
       <c r="AC2">
-        <v>-2.788440163996422</v>
+        <v>10.37787840250711</v>
       </c>
       <c r="AD2">
-        <v>0.062</v>
+        <v>1.01</v>
       </c>
       <c r="AE2">
-        <v>0.09181627604306199</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.153816276043062</v>
+        <v>1.01</v>
       </c>
       <c r="AG2">
-        <v>-1.999183723956938</v>
+        <v>-5.709000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.002029939675767566</v>
+        <v>0.005943274096740026</v>
       </c>
       <c r="AI2">
-        <v>0.02511771567099515</v>
+        <v>0.05558613098514033</v>
       </c>
       <c r="AJ2">
-        <v>-0.02715514205195647</v>
+        <v>-0.03497711691510284</v>
       </c>
       <c r="AK2">
-        <v>-0.5034692075829645</v>
+        <v>-0.4985590778097983</v>
       </c>
       <c r="AL2">
-        <v>0.007</v>
+        <v>0.036</v>
       </c>
       <c r="AM2">
-        <v>-0.077</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="AN2">
-        <v>-0.04415954415954416</v>
+        <v>0.07112676056338028</v>
       </c>
       <c r="AO2">
-        <v>-290.4285714285714</v>
+        <v>381.4444444444444</v>
       </c>
       <c r="AP2">
-        <v>1.423920031308361</v>
+        <v>-0.4020422535211268</v>
       </c>
       <c r="AQ2">
-        <v>26.4025974025974</v>
+        <v>3432.999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +712,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chatham Rock Phosphate Limited (NZSE:CRP)</t>
+          <t>Zoono Group Limited (ASX:ZNO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,103 +721,115 @@
         </is>
       </c>
       <c r="G3">
-        <v>-170.25</v>
+        <v>0.5748987854251012</v>
       </c>
       <c r="H3">
-        <v>-170.25</v>
+        <v>0.5748987854251012</v>
       </c>
       <c r="I3">
-        <v>-133.25</v>
+        <v>0.5748987854251012</v>
       </c>
       <c r="J3">
-        <v>-133.25</v>
+        <v>0.4695006747638326</v>
       </c>
       <c r="K3">
-        <v>-0.535</v>
+        <v>10.8</v>
       </c>
       <c r="L3">
-        <v>-133.75</v>
+        <v>0.4372469635627531</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>3.4461</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.0206972972972973</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.3190833333333333</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>3.4461</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.0206972972972973</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.3190833333333333</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>0.053</v>
+        <v>6.66</v>
       </c>
       <c r="V3">
-        <v>0.01596385542168675</v>
+        <v>0.04</v>
       </c>
       <c r="W3">
-        <v>-0.1494413407821229</v>
+        <v>4.16988416988417</v>
       </c>
       <c r="X3">
-        <v>0.07025849359904167</v>
+        <v>0.05612229753647975</v>
       </c>
       <c r="Y3">
-        <v>-0.2196998343811646</v>
+        <v>4.11376187234769</v>
       </c>
       <c r="Z3">
-        <v>0.001182033096926714</v>
+        <v>44.74637681159423</v>
       </c>
       <c r="AA3">
-        <v>-0.1575059101654847</v>
+        <v>21.00845410628021</v>
       </c>
       <c r="AB3">
-        <v>0.07025849359904167</v>
+        <v>0.05611134618723586</v>
       </c>
       <c r="AC3">
-        <v>-0.2277644037645263</v>
+        <v>20.95234276009297</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG3">
-        <v>-0.053</v>
+        <v>-5.65</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.00602949077667005</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.06960716747070986</v>
       </c>
       <c r="AJ3">
-        <v>-0.01622283440465259</v>
+        <v>-0.03512589368977308</v>
       </c>
       <c r="AK3">
-        <v>-0.01593026750826571</v>
+        <v>-0.7197452229299364</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="AM3">
-        <v>-0.002</v>
+        <v>0.002000000000000002</v>
+      </c>
+      <c r="AN3">
+        <v>0.07112676056338028</v>
+      </c>
+      <c r="AO3">
+        <v>417.6470588235293</v>
+      </c>
+      <c r="AP3">
+        <v>-0.397887323943662</v>
       </c>
       <c r="AQ3">
-        <v>266.5</v>
+        <v>7099.999999999994</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +840,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zoono Group Limited (ASX:ZNO)</t>
+          <t>Chatham Rock Phosphate Limited (NZSE:CRP)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -832,22 +849,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-1.210084033613445</v>
+        <v>-113.25</v>
       </c>
       <c r="H4">
-        <v>-1.210084033613445</v>
+        <v>-113.25</v>
       </c>
       <c r="I4">
-        <v>-1.24568340773833</v>
+        <v>-117</v>
       </c>
       <c r="J4">
-        <v>-1.24568340773833</v>
+        <v>-117</v>
       </c>
       <c r="K4">
-        <v>-1.62</v>
+        <v>-0.474</v>
       </c>
       <c r="L4">
-        <v>-1.361344537815126</v>
+        <v>-118.5</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -871,73 +888,8785 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2.1</v>
+        <v>0.059</v>
       </c>
       <c r="V4">
-        <v>0.02904564315352697</v>
+        <v>0.0242798353909465</v>
       </c>
       <c r="W4">
-        <v>-0.3820754716981132</v>
+        <v>-0.1402366863905326</v>
       </c>
       <c r="X4">
-        <v>0.07033670399584604</v>
+        <v>0.05591868726991708</v>
       </c>
       <c r="Y4">
-        <v>-0.4524121756939593</v>
+        <v>-0.1961553736604496</v>
       </c>
       <c r="Z4">
-        <v>4.237646110717309</v>
+        <v>0.001202284340246468</v>
       </c>
       <c r="AA4">
-        <v>-5.278765447987417</v>
+        <v>-0.1406672678088368</v>
       </c>
       <c r="AB4">
-        <v>0.07035047624090138</v>
+        <v>0.05591868726991708</v>
       </c>
       <c r="AC4">
-        <v>-5.349115924228318</v>
+        <v>-0.1965859550787539</v>
       </c>
       <c r="AD4">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.09181627604306199</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.153816276043062</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-1.946183723956938</v>
+        <v>-0.059</v>
       </c>
       <c r="AH4">
-        <v>0.002122956166408608</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.05605924762021054</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.02766280248850771</v>
+        <v>-0.02488401518346689</v>
       </c>
       <c r="AK4">
-        <v>-3.022886802300673</v>
+        <v>-0.01638433768397667</v>
       </c>
       <c r="AL4">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="AM4">
-        <v>-0.075</v>
-      </c>
-      <c r="AN4">
-        <v>-0.04415954415954416</v>
+        <v>0.002</v>
       </c>
       <c r="AO4">
-        <v>-214.2857142857143</v>
-      </c>
-      <c r="AP4">
-        <v>1.386170743559073</v>
+        <v>-234</v>
       </c>
       <c r="AQ4">
-        <v>20</v>
+        <v>-234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Zoono Group Limited (ASX:ZNO)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASX:ZNO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chemical (Specialty)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.00602949077667005</v>
+      </c>
+      <c r="F2">
+        <v>0.82</v>
+      </c>
+      <c r="G2">
+        <v>166.5</v>
+      </c>
+      <c r="H2">
+        <v>44.6067386251606</v>
+      </c>
+      <c r="I2">
+        <v>160.85</v>
+      </c>
+      <c r="J2">
+        <v>175.304938625161</v>
+      </c>
+      <c r="K2">
+        <v>1.01</v>
+      </c>
+      <c r="L2">
+        <v>137.3582</v>
+      </c>
+      <c r="M2">
+        <v>0.0561113461872359</v>
+      </c>
+      <c r="N2">
+        <v>0.0509320766727441</v>
+      </c>
+      <c r="O2">
+        <v>0.054306</v>
+      </c>
+      <c r="P2">
+        <v>0.016272</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0561222975364798</v>
+      </c>
+      <c r="T2">
+        <v>0.208827981515245</v>
+      </c>
+      <c r="U2">
+        <v>0.991997829162707</v>
+      </c>
+      <c r="V2">
+        <v>4.22728774396706</v>
+      </c>
+      <c r="W2">
+        <v>4.533396004346648</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>166.5</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.07542500000000001</v>
+      </c>
+      <c r="AD2">
+        <v>0.28</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>14.2</v>
+      </c>
+      <c r="AH2">
+        <v>0.127</v>
+      </c>
+      <c r="AI2">
+        <v>0.08800000000000097</v>
+      </c>
+      <c r="AJ2">
+        <v>1.01</v>
+      </c>
+      <c r="AK2">
+        <v>1.01</v>
+      </c>
+      <c r="AL2">
+        <v>0.034</v>
+      </c>
+      <c r="AM2">
+        <v>1.01</v>
+      </c>
+      <c r="AN2">
+        <v>6.66</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05591868726991708</v>
+      </c>
+      <c r="C2">
+        <v>168.0048777036923</v>
+      </c>
+      <c r="D2">
+        <v>161.3448777036923</v>
+      </c>
+      <c r="E2">
+        <v>-1.01</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>6.66</v>
+      </c>
+      <c r="H2">
+        <v>166.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>14.2</v>
+      </c>
+      <c r="K2">
+        <v>0.127</v>
+      </c>
+      <c r="L2">
+        <v>14.073</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>14.073</v>
+      </c>
+      <c r="O2">
+        <v>3.94044</v>
+      </c>
+      <c r="P2">
+        <v>10.13256</v>
+      </c>
+      <c r="Q2">
+        <v>10.25956</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05591868726991708</v>
+      </c>
+      <c r="T2">
+        <v>0.9876840523287518</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.28</v>
+      </c>
+      <c r="W2">
+        <v>0.011664</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05581179494556131</v>
+      </c>
+      <c r="C3">
+        <v>166.6056647980671</v>
+      </c>
+      <c r="D3">
+        <v>161.6207647980671</v>
+      </c>
+      <c r="E3">
+        <v>0.6651</v>
+      </c>
+      <c r="F3">
+        <v>1.6751</v>
+      </c>
+      <c r="G3">
+        <v>6.66</v>
+      </c>
+      <c r="H3">
+        <v>166.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>14.2</v>
+      </c>
+      <c r="K3">
+        <v>0.127</v>
+      </c>
+      <c r="L3">
+        <v>14.073</v>
+      </c>
+      <c r="M3">
+        <v>0.02713662</v>
+      </c>
+      <c r="N3">
+        <v>14.04586338</v>
+      </c>
+      <c r="O3">
+        <v>3.9328417464</v>
+      </c>
+      <c r="P3">
+        <v>10.1130216336</v>
+      </c>
+      <c r="Q3">
+        <v>10.2400216336</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05625773226824375</v>
+      </c>
+      <c r="T3">
+        <v>0.9948672090729609</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.28</v>
+      </c>
+      <c r="W3">
+        <v>0.011664</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>518.5981157564943</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05570490262120555</v>
+      </c>
+      <c r="C4">
+        <v>165.2073969991139</v>
+      </c>
+      <c r="D4">
+        <v>161.8975969991139</v>
+      </c>
+      <c r="E4">
+        <v>2.3402</v>
+      </c>
+      <c r="F4">
+        <v>3.3502</v>
+      </c>
+      <c r="G4">
+        <v>6.66</v>
+      </c>
+      <c r="H4">
+        <v>166.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>14.2</v>
+      </c>
+      <c r="K4">
+        <v>0.127</v>
+      </c>
+      <c r="L4">
+        <v>14.073</v>
+      </c>
+      <c r="M4">
+        <v>0.05427324</v>
+      </c>
+      <c r="N4">
+        <v>14.01872676</v>
+      </c>
+      <c r="O4">
+        <v>3.9252434928</v>
+      </c>
+      <c r="P4">
+        <v>10.0934832672</v>
+      </c>
+      <c r="Q4">
+        <v>10.2204832672</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05660369655225056</v>
+      </c>
+      <c r="T4">
+        <v>1.002196960852766</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.28</v>
+      </c>
+      <c r="W4">
+        <v>0.011664</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>259.2990578782471</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05559801029684977</v>
+      </c>
+      <c r="C5">
+        <v>163.8100791716446</v>
+      </c>
+      <c r="D5">
+        <v>162.1753791716446</v>
+      </c>
+      <c r="E5">
+        <v>4.0153</v>
+      </c>
+      <c r="F5">
+        <v>5.0253</v>
+      </c>
+      <c r="G5">
+        <v>6.66</v>
+      </c>
+      <c r="H5">
+        <v>166.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>14.2</v>
+      </c>
+      <c r="K5">
+        <v>0.127</v>
+      </c>
+      <c r="L5">
+        <v>14.073</v>
+      </c>
+      <c r="M5">
+        <v>0.08140985999999999</v>
+      </c>
+      <c r="N5">
+        <v>13.99159014</v>
+      </c>
+      <c r="O5">
+        <v>3.9176452392</v>
+      </c>
+      <c r="P5">
+        <v>10.0739449008</v>
+      </c>
+      <c r="Q5">
+        <v>10.2009449008</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05695679412046369</v>
+      </c>
+      <c r="T5">
+        <v>1.009677841535248</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.28</v>
+      </c>
+      <c r="W5">
+        <v>0.011664</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>172.8660385854981</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05549111797249401</v>
+      </c>
+      <c r="C6">
+        <v>162.4137162139165</v>
+      </c>
+      <c r="D6">
+        <v>162.4541162139165</v>
+      </c>
+      <c r="E6">
+        <v>5.6904</v>
+      </c>
+      <c r="F6">
+        <v>6.7004</v>
+      </c>
+      <c r="G6">
+        <v>6.66</v>
+      </c>
+      <c r="H6">
+        <v>166.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>14.2</v>
+      </c>
+      <c r="K6">
+        <v>0.127</v>
+      </c>
+      <c r="L6">
+        <v>14.073</v>
+      </c>
+      <c r="M6">
+        <v>0.10854648</v>
+      </c>
+      <c r="N6">
+        <v>13.96445352</v>
+      </c>
+      <c r="O6">
+        <v>3.9100469856</v>
+      </c>
+      <c r="P6">
+        <v>10.0544065344</v>
+      </c>
+      <c r="Q6">
+        <v>10.1814065344</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05731724788801459</v>
+      </c>
+      <c r="T6">
+        <v>1.017314573898614</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.28</v>
+      </c>
+      <c r="W6">
+        <v>0.011664</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>129.6495289391236</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05538422564813823</v>
+      </c>
+      <c r="C7">
+        <v>161.0183130579202</v>
+      </c>
+      <c r="D7">
+        <v>162.7338130579202</v>
+      </c>
+      <c r="E7">
+        <v>7.365500000000001</v>
+      </c>
+      <c r="F7">
+        <v>8.375500000000001</v>
+      </c>
+      <c r="G7">
+        <v>6.66</v>
+      </c>
+      <c r="H7">
+        <v>166.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>14.2</v>
+      </c>
+      <c r="K7">
+        <v>0.127</v>
+      </c>
+      <c r="L7">
+        <v>14.073</v>
+      </c>
+      <c r="M7">
+        <v>0.1356831</v>
+      </c>
+      <c r="N7">
+        <v>13.9373169</v>
+      </c>
+      <c r="O7">
+        <v>3.902448732</v>
+      </c>
+      <c r="P7">
+        <v>10.034868168</v>
+      </c>
+      <c r="Q7">
+        <v>10.161868168</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05768529015593499</v>
+      </c>
+      <c r="T7">
+        <v>1.025112079574894</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.28</v>
+      </c>
+      <c r="W7">
+        <v>0.011664</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>103.7196231512989</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05527733332378248</v>
+      </c>
+      <c r="C8">
+        <v>159.6238746696701</v>
+      </c>
+      <c r="D8">
+        <v>163.0144746696701</v>
+      </c>
+      <c r="E8">
+        <v>9.0406</v>
+      </c>
+      <c r="F8">
+        <v>10.0506</v>
+      </c>
+      <c r="G8">
+        <v>6.66</v>
+      </c>
+      <c r="H8">
+        <v>166.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>14.2</v>
+      </c>
+      <c r="K8">
+        <v>0.127</v>
+      </c>
+      <c r="L8">
+        <v>14.073</v>
+      </c>
+      <c r="M8">
+        <v>0.16281972</v>
+      </c>
+      <c r="N8">
+        <v>13.91018028</v>
+      </c>
+      <c r="O8">
+        <v>3.8948504784</v>
+      </c>
+      <c r="P8">
+        <v>10.0153298016</v>
+      </c>
+      <c r="Q8">
+        <v>10.1423298016</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05806116311040689</v>
+      </c>
+      <c r="T8">
+        <v>1.033075489627265</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.28</v>
+      </c>
+      <c r="W8">
+        <v>0.011664</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>86.43301929274907</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.0551704409994267</v>
+      </c>
+      <c r="C9">
+        <v>158.2304060494991</v>
+      </c>
+      <c r="D9">
+        <v>163.2961060494991</v>
+      </c>
+      <c r="E9">
+        <v>10.7157</v>
+      </c>
+      <c r="F9">
+        <v>11.7257</v>
+      </c>
+      <c r="G9">
+        <v>6.66</v>
+      </c>
+      <c r="H9">
+        <v>166.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>14.2</v>
+      </c>
+      <c r="K9">
+        <v>0.127</v>
+      </c>
+      <c r="L9">
+        <v>14.073</v>
+      </c>
+      <c r="M9">
+        <v>0.18995634</v>
+      </c>
+      <c r="N9">
+        <v>13.88304366</v>
+      </c>
+      <c r="O9">
+        <v>3.8872522248</v>
+      </c>
+      <c r="P9">
+        <v>9.995791435199997</v>
+      </c>
+      <c r="Q9">
+        <v>10.1227914352</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05844511935422227</v>
+      </c>
+      <c r="T9">
+        <v>1.041210155809794</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.28</v>
+      </c>
+      <c r="W9">
+        <v>0.011664</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>74.08544510807063</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05506354867507095</v>
+      </c>
+      <c r="C10">
+        <v>156.8379122323549</v>
+      </c>
+      <c r="D10">
+        <v>163.5787122323549</v>
+      </c>
+      <c r="E10">
+        <v>12.3908</v>
+      </c>
+      <c r="F10">
+        <v>13.4008</v>
+      </c>
+      <c r="G10">
+        <v>6.66</v>
+      </c>
+      <c r="H10">
+        <v>166.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>14.2</v>
+      </c>
+      <c r="K10">
+        <v>0.127</v>
+      </c>
+      <c r="L10">
+        <v>14.073</v>
+      </c>
+      <c r="M10">
+        <v>0.21709296</v>
+      </c>
+      <c r="N10">
+        <v>13.85590704</v>
+      </c>
+      <c r="O10">
+        <v>3.8796539712</v>
+      </c>
+      <c r="P10">
+        <v>9.976253068799998</v>
+      </c>
+      <c r="Q10">
+        <v>10.1032530688</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.0588374224729032</v>
+      </c>
+      <c r="T10">
+        <v>1.049521662561508</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.28</v>
+      </c>
+      <c r="W10">
+        <v>0.011664</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>64.82476446956179</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05495665635071517</v>
+      </c>
+      <c r="C11">
+        <v>155.4463982881006</v>
+      </c>
+      <c r="D11">
+        <v>163.8622982881006</v>
+      </c>
+      <c r="E11">
+        <v>14.0659</v>
+      </c>
+      <c r="F11">
+        <v>15.0759</v>
+      </c>
+      <c r="G11">
+        <v>6.66</v>
+      </c>
+      <c r="H11">
+        <v>166.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>14.2</v>
+      </c>
+      <c r="K11">
+        <v>0.127</v>
+      </c>
+      <c r="L11">
+        <v>14.073</v>
+      </c>
+      <c r="M11">
+        <v>0.24422958</v>
+      </c>
+      <c r="N11">
+        <v>13.82877042</v>
+      </c>
+      <c r="O11">
+        <v>3.8720557176</v>
+      </c>
+      <c r="P11">
+        <v>9.956714702399998</v>
+      </c>
+      <c r="Q11">
+        <v>10.0837147024</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05923834763814854</v>
+      </c>
+      <c r="T11">
+        <v>1.058015839791283</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.28</v>
+      </c>
+      <c r="W11">
+        <v>0.011664</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>57.6220128618327</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.0548497640263594</v>
+      </c>
+      <c r="C12">
+        <v>154.055869321817</v>
+      </c>
+      <c r="D12">
+        <v>164.146869321817</v>
+      </c>
+      <c r="E12">
+        <v>15.741</v>
+      </c>
+      <c r="F12">
+        <v>16.751</v>
+      </c>
+      <c r="G12">
+        <v>6.66</v>
+      </c>
+      <c r="H12">
+        <v>166.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>14.2</v>
+      </c>
+      <c r="K12">
+        <v>0.127</v>
+      </c>
+      <c r="L12">
+        <v>14.073</v>
+      </c>
+      <c r="M12">
+        <v>0.2713662</v>
+      </c>
+      <c r="N12">
+        <v>13.8016338</v>
+      </c>
+      <c r="O12">
+        <v>3.864457464</v>
+      </c>
+      <c r="P12">
+        <v>9.937176336</v>
+      </c>
+      <c r="Q12">
+        <v>10.064176336</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05964818225151045</v>
+      </c>
+      <c r="T12">
+        <v>1.066698776515052</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.28</v>
+      </c>
+      <c r="W12">
+        <v>0.011664</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>51.85981157564943</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05474287170200365</v>
+      </c>
+      <c r="C13">
+        <v>152.66633047411</v>
+      </c>
+      <c r="D13">
+        <v>164.43243047411</v>
+      </c>
+      <c r="E13">
+        <v>17.4161</v>
+      </c>
+      <c r="F13">
+        <v>18.4261</v>
+      </c>
+      <c r="G13">
+        <v>6.66</v>
+      </c>
+      <c r="H13">
+        <v>166.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>14.2</v>
+      </c>
+      <c r="K13">
+        <v>0.127</v>
+      </c>
+      <c r="L13">
+        <v>14.073</v>
+      </c>
+      <c r="M13">
+        <v>0.2985028199999999</v>
+      </c>
+      <c r="N13">
+        <v>13.77449718</v>
+      </c>
+      <c r="O13">
+        <v>3.8568592104</v>
+      </c>
+      <c r="P13">
+        <v>9.917637969599999</v>
+      </c>
+      <c r="Q13">
+        <v>10.0446379696</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06006722663146477</v>
+      </c>
+      <c r="T13">
+        <v>1.075576835412389</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.28</v>
+      </c>
+      <c r="W13">
+        <v>0.011664</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>47.1452832505904</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05463597937764787</v>
+      </c>
+      <c r="C14">
+        <v>151.2777869214194</v>
+      </c>
+      <c r="D14">
+        <v>164.7189869214194</v>
+      </c>
+      <c r="E14">
+        <v>19.0912</v>
+      </c>
+      <c r="F14">
+        <v>20.1012</v>
+      </c>
+      <c r="G14">
+        <v>6.66</v>
+      </c>
+      <c r="H14">
+        <v>166.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>14.2</v>
+      </c>
+      <c r="K14">
+        <v>0.127</v>
+      </c>
+      <c r="L14">
+        <v>14.073</v>
+      </c>
+      <c r="M14">
+        <v>0.3256394399999999</v>
+      </c>
+      <c r="N14">
+        <v>13.74736056</v>
+      </c>
+      <c r="O14">
+        <v>3.8492609568</v>
+      </c>
+      <c r="P14">
+        <v>9.898099603199999</v>
+      </c>
+      <c r="Q14">
+        <v>10.0250996032</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06049579474732712</v>
+      </c>
+      <c r="T14">
+        <v>1.084656668375575</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.28</v>
+      </c>
+      <c r="W14">
+        <v>0.011664</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>43.21650964637453</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.0545290870532921</v>
+      </c>
+      <c r="C15">
+        <v>149.8902438763318</v>
+      </c>
+      <c r="D15">
+        <v>165.0065438763318</v>
+      </c>
+      <c r="E15">
+        <v>20.7663</v>
+      </c>
+      <c r="F15">
+        <v>21.7763</v>
+      </c>
+      <c r="G15">
+        <v>6.66</v>
+      </c>
+      <c r="H15">
+        <v>166.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>14.2</v>
+      </c>
+      <c r="K15">
+        <v>0.127</v>
+      </c>
+      <c r="L15">
+        <v>14.073</v>
+      </c>
+      <c r="M15">
+        <v>0.3527760599999999</v>
+      </c>
+      <c r="N15">
+        <v>13.72022394</v>
+      </c>
+      <c r="O15">
+        <v>3.8416627032</v>
+      </c>
+      <c r="P15">
+        <v>9.8785612368</v>
+      </c>
+      <c r="Q15">
+        <v>10.0055612368</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06093421500378401</v>
+      </c>
+      <c r="T15">
+        <v>1.093945233131017</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.28</v>
+      </c>
+      <c r="W15">
+        <v>0.011664</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>39.89216275049957</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05442219472893633</v>
+      </c>
+      <c r="C16">
+        <v>148.5037065878972</v>
+      </c>
+      <c r="D16">
+        <v>165.2951065878972</v>
+      </c>
+      <c r="E16">
+        <v>22.4414</v>
+      </c>
+      <c r="F16">
+        <v>23.4514</v>
+      </c>
+      <c r="G16">
+        <v>6.66</v>
+      </c>
+      <c r="H16">
+        <v>166.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>14.2</v>
+      </c>
+      <c r="K16">
+        <v>0.127</v>
+      </c>
+      <c r="L16">
+        <v>14.073</v>
+      </c>
+      <c r="M16">
+        <v>0.3799126799999999</v>
+      </c>
+      <c r="N16">
+        <v>13.69308732</v>
+      </c>
+      <c r="O16">
+        <v>3.8340644496</v>
+      </c>
+      <c r="P16">
+        <v>9.859022870399999</v>
+      </c>
+      <c r="Q16">
+        <v>9.986022870399999</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06138283108015852</v>
+      </c>
+      <c r="T16">
+        <v>1.103449811020308</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.28</v>
+      </c>
+      <c r="W16">
+        <v>0.011664</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>37.04272255403531</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05431530240458055</v>
+      </c>
+      <c r="C17">
+        <v>147.1181803419477</v>
+      </c>
+      <c r="D17">
+        <v>165.5846803419477</v>
+      </c>
+      <c r="E17">
+        <v>24.11649999999999</v>
+      </c>
+      <c r="F17">
+        <v>25.1265</v>
+      </c>
+      <c r="G17">
+        <v>6.66</v>
+      </c>
+      <c r="H17">
+        <v>166.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>14.2</v>
+      </c>
+      <c r="K17">
+        <v>0.127</v>
+      </c>
+      <c r="L17">
+        <v>14.073</v>
+      </c>
+      <c r="M17">
+        <v>0.4070492999999999</v>
+      </c>
+      <c r="N17">
+        <v>13.6659507</v>
+      </c>
+      <c r="O17">
+        <v>3.826466196</v>
+      </c>
+      <c r="P17">
+        <v>9.839484503999998</v>
+      </c>
+      <c r="Q17">
+        <v>9.966484503999999</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.0618420028289183</v>
+      </c>
+      <c r="T17">
+        <v>1.113178026036405</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.28</v>
+      </c>
+      <c r="W17">
+        <v>0.011664</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>34.57320771709962</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05420841008022479</v>
+      </c>
+      <c r="C18">
+        <v>145.7336704614205</v>
+      </c>
+      <c r="D18">
+        <v>165.8752704614205</v>
+      </c>
+      <c r="E18">
+        <v>25.7916</v>
+      </c>
+      <c r="F18">
+        <v>26.8016</v>
+      </c>
+      <c r="G18">
+        <v>6.66</v>
+      </c>
+      <c r="H18">
+        <v>166.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>14.2</v>
+      </c>
+      <c r="K18">
+        <v>0.127</v>
+      </c>
+      <c r="L18">
+        <v>14.073</v>
+      </c>
+      <c r="M18">
+        <v>0.43418592</v>
+      </c>
+      <c r="N18">
+        <v>13.63881408</v>
+      </c>
+      <c r="O18">
+        <v>3.8188679424</v>
+      </c>
+      <c r="P18">
+        <v>9.819946137599999</v>
+      </c>
+      <c r="Q18">
+        <v>9.946946137599999</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06231210723836285</v>
+      </c>
+      <c r="T18">
+        <v>1.123137865219552</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.28</v>
+      </c>
+      <c r="W18">
+        <v>0.011664</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>32.41238223478089</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05410151775586903</v>
+      </c>
+      <c r="C19">
+        <v>144.3501823066843</v>
+      </c>
+      <c r="D19">
+        <v>166.1668823066843</v>
+      </c>
+      <c r="E19">
+        <v>27.4667</v>
+      </c>
+      <c r="F19">
+        <v>28.4767</v>
+      </c>
+      <c r="G19">
+        <v>6.66</v>
+      </c>
+      <c r="H19">
+        <v>166.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>14.2</v>
+      </c>
+      <c r="K19">
+        <v>0.127</v>
+      </c>
+      <c r="L19">
+        <v>14.073</v>
+      </c>
+      <c r="M19">
+        <v>0.46132254</v>
+      </c>
+      <c r="N19">
+        <v>13.61167746</v>
+      </c>
+      <c r="O19">
+        <v>3.8112696888</v>
+      </c>
+      <c r="P19">
+        <v>9.8004077712</v>
+      </c>
+      <c r="Q19">
+        <v>9.9274077712</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06279353946490245</v>
+      </c>
+      <c r="T19">
+        <v>1.133337700527594</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.28</v>
+      </c>
+      <c r="W19">
+        <v>0.011664</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>30.5057715150879</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05399462543151326</v>
+      </c>
+      <c r="C20">
+        <v>142.9677212758684</v>
+      </c>
+      <c r="D20">
+        <v>166.4595212758684</v>
+      </c>
+      <c r="E20">
+        <v>29.1418</v>
+      </c>
+      <c r="F20">
+        <v>30.1518</v>
+      </c>
+      <c r="G20">
+        <v>6.66</v>
+      </c>
+      <c r="H20">
+        <v>166.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>14.2</v>
+      </c>
+      <c r="K20">
+        <v>0.127</v>
+      </c>
+      <c r="L20">
+        <v>14.073</v>
+      </c>
+      <c r="M20">
+        <v>0.4884591599999999</v>
+      </c>
+      <c r="N20">
+        <v>13.58454084</v>
+      </c>
+      <c r="O20">
+        <v>3.8036714352</v>
+      </c>
+      <c r="P20">
+        <v>9.780869404799999</v>
+      </c>
+      <c r="Q20">
+        <v>9.9078694048</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06328671394086982</v>
+      </c>
+      <c r="T20">
+        <v>1.143786312306564</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.28</v>
+      </c>
+      <c r="W20">
+        <v>0.011664</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>28.81100643091635</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05388773310715751</v>
+      </c>
+      <c r="C21">
+        <v>141.5862928051965</v>
+      </c>
+      <c r="D21">
+        <v>166.7531928051965</v>
+      </c>
+      <c r="E21">
+        <v>30.8169</v>
+      </c>
+      <c r="F21">
+        <v>31.8269</v>
+      </c>
+      <c r="G21">
+        <v>6.66</v>
+      </c>
+      <c r="H21">
+        <v>166.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>14.2</v>
+      </c>
+      <c r="K21">
+        <v>0.127</v>
+      </c>
+      <c r="L21">
+        <v>14.073</v>
+      </c>
+      <c r="M21">
+        <v>0.5155957799999999</v>
+      </c>
+      <c r="N21">
+        <v>13.55740422</v>
+      </c>
+      <c r="O21">
+        <v>3.7960731816</v>
+      </c>
+      <c r="P21">
+        <v>9.761331038399998</v>
+      </c>
+      <c r="Q21">
+        <v>9.888331038399999</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06379206556439197</v>
+      </c>
+      <c r="T21">
+        <v>1.15449291449983</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.28</v>
+      </c>
+      <c r="W21">
+        <v>0.011664</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>27.29463767139444</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05378084078280172</v>
+      </c>
+      <c r="C22">
+        <v>140.2059023693226</v>
+      </c>
+      <c r="D22">
+        <v>167.0479023693227</v>
+      </c>
+      <c r="E22">
+        <v>32.492</v>
+      </c>
+      <c r="F22">
+        <v>33.502</v>
+      </c>
+      <c r="G22">
+        <v>6.66</v>
+      </c>
+      <c r="H22">
+        <v>166.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>14.2</v>
+      </c>
+      <c r="K22">
+        <v>0.127</v>
+      </c>
+      <c r="L22">
+        <v>14.073</v>
+      </c>
+      <c r="M22">
+        <v>0.5427324</v>
+      </c>
+      <c r="N22">
+        <v>13.5302676</v>
+      </c>
+      <c r="O22">
+        <v>3.788474928</v>
+      </c>
+      <c r="P22">
+        <v>9.741792671999999</v>
+      </c>
+      <c r="Q22">
+        <v>9.868792672</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06431005097850215</v>
+      </c>
+      <c r="T22">
+        <v>1.165467181747927</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.28</v>
+      </c>
+      <c r="W22">
+        <v>0.011664</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>25.92990578782472</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05367394845844596</v>
+      </c>
+      <c r="C23">
+        <v>138.8265554816716</v>
+      </c>
+      <c r="D23">
+        <v>167.3436554816716</v>
+      </c>
+      <c r="E23">
+        <v>34.1671</v>
+      </c>
+      <c r="F23">
+        <v>35.1771</v>
+      </c>
+      <c r="G23">
+        <v>6.66</v>
+      </c>
+      <c r="H23">
+        <v>166.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>14.2</v>
+      </c>
+      <c r="K23">
+        <v>0.127</v>
+      </c>
+      <c r="L23">
+        <v>14.073</v>
+      </c>
+      <c r="M23">
+        <v>0.5698690199999999</v>
+      </c>
+      <c r="N23">
+        <v>13.50313098</v>
+      </c>
+      <c r="O23">
+        <v>3.7808766744</v>
+      </c>
+      <c r="P23">
+        <v>9.722254305599998</v>
+      </c>
+      <c r="Q23">
+        <v>9.849254305599999</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06484114994739995</v>
+      </c>
+      <c r="T23">
+        <v>1.176719278546609</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.28</v>
+      </c>
+      <c r="W23">
+        <v>0.011664</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>24.69514836935687</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05356705613409019</v>
+      </c>
+      <c r="C24">
+        <v>137.4482576947831</v>
+      </c>
+      <c r="D24">
+        <v>167.6404576947831</v>
+      </c>
+      <c r="E24">
+        <v>35.8422</v>
+      </c>
+      <c r="F24">
+        <v>36.8522</v>
+      </c>
+      <c r="G24">
+        <v>6.66</v>
+      </c>
+      <c r="H24">
+        <v>166.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>14.2</v>
+      </c>
+      <c r="K24">
+        <v>0.127</v>
+      </c>
+      <c r="L24">
+        <v>14.073</v>
+      </c>
+      <c r="M24">
+        <v>0.5970056399999999</v>
+      </c>
+      <c r="N24">
+        <v>13.47599436</v>
+      </c>
+      <c r="O24">
+        <v>3.7732784208</v>
+      </c>
+      <c r="P24">
+        <v>9.702715939199997</v>
+      </c>
+      <c r="Q24">
+        <v>9.829715939199998</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06538586683857717</v>
+      </c>
+      <c r="T24">
+        <v>1.188259890647821</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.28</v>
+      </c>
+      <c r="W24">
+        <v>0.011664</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>23.5726416252952</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05346016380973442</v>
+      </c>
+      <c r="C25">
+        <v>136.0710146006587</v>
+      </c>
+      <c r="D25">
+        <v>167.9383146006587</v>
+      </c>
+      <c r="E25">
+        <v>37.5173</v>
+      </c>
+      <c r="F25">
+        <v>38.5273</v>
+      </c>
+      <c r="G25">
+        <v>6.66</v>
+      </c>
+      <c r="H25">
+        <v>166.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>14.2</v>
+      </c>
+      <c r="K25">
+        <v>0.127</v>
+      </c>
+      <c r="L25">
+        <v>14.073</v>
+      </c>
+      <c r="M25">
+        <v>0.6241422599999999</v>
+      </c>
+      <c r="N25">
+        <v>13.44885774</v>
+      </c>
+      <c r="O25">
+        <v>3.7656801672</v>
+      </c>
+      <c r="P25">
+        <v>9.683177572799998</v>
+      </c>
+      <c r="Q25">
+        <v>9.810177572799999</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06594473222043432</v>
+      </c>
+      <c r="T25">
+        <v>1.200100258907507</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.28</v>
+      </c>
+      <c r="W25">
+        <v>0.011664</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>22.54774416332584</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05335327148537866</v>
+      </c>
+      <c r="C26">
+        <v>134.6948318311134</v>
+      </c>
+      <c r="D26">
+        <v>168.2372318311134</v>
+      </c>
+      <c r="E26">
+        <v>39.1924</v>
+      </c>
+      <c r="F26">
+        <v>40.2024</v>
+      </c>
+      <c r="G26">
+        <v>6.66</v>
+      </c>
+      <c r="H26">
+        <v>166.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>14.2</v>
+      </c>
+      <c r="K26">
+        <v>0.127</v>
+      </c>
+      <c r="L26">
+        <v>14.073</v>
+      </c>
+      <c r="M26">
+        <v>0.6512788799999999</v>
+      </c>
+      <c r="N26">
+        <v>13.42172112</v>
+      </c>
+      <c r="O26">
+        <v>3.7580819136</v>
+      </c>
+      <c r="P26">
+        <v>9.663639206399999</v>
+      </c>
+      <c r="Q26">
+        <v>9.7906392064</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06651830458602455</v>
+      </c>
+      <c r="T26">
+        <v>1.212252215805605</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.28</v>
+      </c>
+      <c r="W26">
+        <v>0.011664</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>21.60825482318727</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05324637916102289</v>
+      </c>
+      <c r="C27">
+        <v>133.3197150581306</v>
+      </c>
+      <c r="D27">
+        <v>168.5372150581306</v>
+      </c>
+      <c r="E27">
+        <v>40.8675</v>
+      </c>
+      <c r="F27">
+        <v>41.8775</v>
+      </c>
+      <c r="G27">
+        <v>6.66</v>
+      </c>
+      <c r="H27">
+        <v>166.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>14.2</v>
+      </c>
+      <c r="K27">
+        <v>0.127</v>
+      </c>
+      <c r="L27">
+        <v>14.073</v>
+      </c>
+      <c r="M27">
+        <v>0.6784154999999999</v>
+      </c>
+      <c r="N27">
+        <v>13.3945845</v>
+      </c>
+      <c r="O27">
+        <v>3.75048366</v>
+      </c>
+      <c r="P27">
+        <v>9.644100839999998</v>
+      </c>
+      <c r="Q27">
+        <v>9.771100839999999</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06710717221469718</v>
+      </c>
+      <c r="T27">
+        <v>1.224728224887652</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.28</v>
+      </c>
+      <c r="W27">
+        <v>0.011664</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>20.74392463025977</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05313948683666712</v>
+      </c>
+      <c r="C28">
+        <v>131.9456699942206</v>
+      </c>
+      <c r="D28">
+        <v>168.8382699942206</v>
+      </c>
+      <c r="E28">
+        <v>42.5426</v>
+      </c>
+      <c r="F28">
+        <v>43.5526</v>
+      </c>
+      <c r="G28">
+        <v>6.66</v>
+      </c>
+      <c r="H28">
+        <v>166.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>14.2</v>
+      </c>
+      <c r="K28">
+        <v>0.127</v>
+      </c>
+      <c r="L28">
+        <v>14.073</v>
+      </c>
+      <c r="M28">
+        <v>0.7055521199999999</v>
+      </c>
+      <c r="N28">
+        <v>13.36744788</v>
+      </c>
+      <c r="O28">
+        <v>3.7428854064</v>
+      </c>
+      <c r="P28">
+        <v>9.624562473599998</v>
+      </c>
+      <c r="Q28">
+        <v>9.751562473599998</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.0677119551846853</v>
+      </c>
+      <c r="T28">
+        <v>1.23754142340435</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.28</v>
+      </c>
+      <c r="W28">
+        <v>0.011664</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>19.94608137524978</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05303259451231135</v>
+      </c>
+      <c r="C29">
+        <v>130.5727023927833</v>
+      </c>
+      <c r="D29">
+        <v>169.1404023927833</v>
+      </c>
+      <c r="E29">
+        <v>44.2177</v>
+      </c>
+      <c r="F29">
+        <v>45.2277</v>
+      </c>
+      <c r="G29">
+        <v>6.66</v>
+      </c>
+      <c r="H29">
+        <v>166.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>14.2</v>
+      </c>
+      <c r="K29">
+        <v>0.127</v>
+      </c>
+      <c r="L29">
+        <v>14.073</v>
+      </c>
+      <c r="M29">
+        <v>0.7326887399999999</v>
+      </c>
+      <c r="N29">
+        <v>13.34031126</v>
+      </c>
+      <c r="O29">
+        <v>3.7352871528</v>
+      </c>
+      <c r="P29">
+        <v>9.605024107199998</v>
+      </c>
+      <c r="Q29">
+        <v>9.732024107199999</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06833330755111144</v>
+      </c>
+      <c r="T29">
+        <v>1.250705668455751</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.28</v>
+      </c>
+      <c r="W29">
+        <v>0.011664</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>19.2073376206109</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05292570218795559</v>
+      </c>
+      <c r="C30">
+        <v>129.2008180484748</v>
+      </c>
+      <c r="D30">
+        <v>169.4436180484749</v>
+      </c>
+      <c r="E30">
+        <v>45.8928</v>
+      </c>
+      <c r="F30">
+        <v>46.9028</v>
+      </c>
+      <c r="G30">
+        <v>6.66</v>
+      </c>
+      <c r="H30">
+        <v>166.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>14.2</v>
+      </c>
+      <c r="K30">
+        <v>0.127</v>
+      </c>
+      <c r="L30">
+        <v>14.073</v>
+      </c>
+      <c r="M30">
+        <v>0.7598253599999999</v>
+      </c>
+      <c r="N30">
+        <v>13.31317464</v>
+      </c>
+      <c r="O30">
+        <v>3.7276888992</v>
+      </c>
+      <c r="P30">
+        <v>9.585485740799998</v>
+      </c>
+      <c r="Q30">
+        <v>9.712485740799998</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.06897191970549388</v>
+      </c>
+      <c r="T30">
+        <v>1.264235586980802</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.28</v>
+      </c>
+      <c r="W30">
+        <v>0.011664</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>18.52136127701765</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.05281880986359981</v>
+      </c>
+      <c r="C31">
+        <v>127.8300227975781</v>
+      </c>
+      <c r="D31">
+        <v>169.7479227975781</v>
+      </c>
+      <c r="E31">
+        <v>47.56789999999999</v>
+      </c>
+      <c r="F31">
+        <v>48.57789999999999</v>
+      </c>
+      <c r="G31">
+        <v>6.66</v>
+      </c>
+      <c r="H31">
+        <v>166.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>14.2</v>
+      </c>
+      <c r="K31">
+        <v>0.127</v>
+      </c>
+      <c r="L31">
+        <v>14.073</v>
+      </c>
+      <c r="M31">
+        <v>0.7869619799999998</v>
+      </c>
+      <c r="N31">
+        <v>13.28603802</v>
+      </c>
+      <c r="O31">
+        <v>3.7200906456</v>
+      </c>
+      <c r="P31">
+        <v>9.5659473744</v>
+      </c>
+      <c r="Q31">
+        <v>9.692947374400001</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.06962852093464762</v>
+      </c>
+      <c r="T31">
+        <v>1.278146629971348</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.28</v>
+      </c>
+      <c r="W31">
+        <v>0.011664</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>17.88269364677567</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.05271191753924405</v>
+      </c>
+      <c r="C32">
+        <v>126.4603225183767</v>
+      </c>
+      <c r="D32">
+        <v>170.0533225183767</v>
+      </c>
+      <c r="E32">
+        <v>49.24299999999999</v>
+      </c>
+      <c r="F32">
+        <v>50.25299999999999</v>
+      </c>
+      <c r="G32">
+        <v>6.66</v>
+      </c>
+      <c r="H32">
+        <v>166.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>14.2</v>
+      </c>
+      <c r="K32">
+        <v>0.127</v>
+      </c>
+      <c r="L32">
+        <v>14.073</v>
+      </c>
+      <c r="M32">
+        <v>0.8140985999999999</v>
+      </c>
+      <c r="N32">
+        <v>13.2589014</v>
+      </c>
+      <c r="O32">
+        <v>3.712492392</v>
+      </c>
+      <c r="P32">
+        <v>9.546409007999999</v>
+      </c>
+      <c r="Q32">
+        <v>9.673409008</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07030388219892007</v>
+      </c>
+      <c r="T32">
+        <v>1.292455131333053</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.28</v>
+      </c>
+      <c r="W32">
+        <v>0.011664</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>17.28660385854981</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05260502521488827</v>
+      </c>
+      <c r="C33">
+        <v>125.0917231315343</v>
+      </c>
+      <c r="D33">
+        <v>170.3598231315343</v>
+      </c>
+      <c r="E33">
+        <v>50.9181</v>
+      </c>
+      <c r="F33">
+        <v>51.92809999999999</v>
+      </c>
+      <c r="G33">
+        <v>6.66</v>
+      </c>
+      <c r="H33">
+        <v>166.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>14.2</v>
+      </c>
+      <c r="K33">
+        <v>0.127</v>
+      </c>
+      <c r="L33">
+        <v>14.073</v>
+      </c>
+      <c r="M33">
+        <v>0.8412352199999998</v>
+      </c>
+      <c r="N33">
+        <v>13.23176478</v>
+      </c>
+      <c r="O33">
+        <v>3.7048941384</v>
+      </c>
+      <c r="P33">
+        <v>9.526870641599999</v>
+      </c>
+      <c r="Q33">
+        <v>9.653870641599999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07099881915201199</v>
+      </c>
+      <c r="T33">
+        <v>1.307178371864661</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.28</v>
+      </c>
+      <c r="W33">
+        <v>0.011664</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>16.72897147601595</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.05249813289053251</v>
+      </c>
+      <c r="C34">
+        <v>123.7242306004763</v>
+      </c>
+      <c r="D34">
+        <v>170.6674306004763</v>
+      </c>
+      <c r="E34">
+        <v>52.5932</v>
+      </c>
+      <c r="F34">
+        <v>53.6032</v>
+      </c>
+      <c r="G34">
+        <v>6.66</v>
+      </c>
+      <c r="H34">
+        <v>166.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>14.2</v>
+      </c>
+      <c r="K34">
+        <v>0.127</v>
+      </c>
+      <c r="L34">
+        <v>14.073</v>
+      </c>
+      <c r="M34">
+        <v>0.86837184</v>
+      </c>
+      <c r="N34">
+        <v>13.20462816</v>
+      </c>
+      <c r="O34">
+        <v>3.6972958848</v>
+      </c>
+      <c r="P34">
+        <v>9.5073322752</v>
+      </c>
+      <c r="Q34">
+        <v>9.6343322752</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.0717141954272537</v>
+      </c>
+      <c r="T34">
+        <v>1.322334648882494</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.28</v>
+      </c>
+      <c r="W34">
+        <v>0.011664</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>16.20619111739045</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.05239124056617674</v>
+      </c>
+      <c r="C35">
+        <v>122.3578509317776</v>
+      </c>
+      <c r="D35">
+        <v>170.9761509317776</v>
+      </c>
+      <c r="E35">
+        <v>54.2683</v>
+      </c>
+      <c r="F35">
+        <v>55.2783</v>
+      </c>
+      <c r="G35">
+        <v>6.66</v>
+      </c>
+      <c r="H35">
+        <v>166.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>14.2</v>
+      </c>
+      <c r="K35">
+        <v>0.127</v>
+      </c>
+      <c r="L35">
+        <v>14.073</v>
+      </c>
+      <c r="M35">
+        <v>0.89550846</v>
+      </c>
+      <c r="N35">
+        <v>13.17749154</v>
+      </c>
+      <c r="O35">
+        <v>3.6896976312</v>
+      </c>
+      <c r="P35">
+        <v>9.487793908799999</v>
+      </c>
+      <c r="Q35">
+        <v>9.614793908799999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07245092621817424</v>
+      </c>
+      <c r="T35">
+        <v>1.337943352079963</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.28</v>
+      </c>
+      <c r="W35">
+        <v>0.011664</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>15.71509441686347</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.05228434824182097</v>
+      </c>
+      <c r="C36">
+        <v>120.9925901755525</v>
+      </c>
+      <c r="D36">
+        <v>171.2859901755525</v>
+      </c>
+      <c r="E36">
+        <v>55.9434</v>
+      </c>
+      <c r="F36">
+        <v>56.9534</v>
+      </c>
+      <c r="G36">
+        <v>6.66</v>
+      </c>
+      <c r="H36">
+        <v>166.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>14.2</v>
+      </c>
+      <c r="K36">
+        <v>0.127</v>
+      </c>
+      <c r="L36">
+        <v>14.073</v>
+      </c>
+      <c r="M36">
+        <v>0.92264508</v>
+      </c>
+      <c r="N36">
+        <v>13.15035492</v>
+      </c>
+      <c r="O36">
+        <v>3.6820993776</v>
+      </c>
+      <c r="P36">
+        <v>9.468255542399998</v>
+      </c>
+      <c r="Q36">
+        <v>9.595255542399999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07320998218457725</v>
+      </c>
+      <c r="T36">
+        <v>1.354025046283416</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.28</v>
+      </c>
+      <c r="W36">
+        <v>0.011664</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>15.25288575754395</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.05217745591746521</v>
+      </c>
+      <c r="C37">
+        <v>119.6284544258507</v>
+      </c>
+      <c r="D37">
+        <v>171.5969544258507</v>
+      </c>
+      <c r="E37">
+        <v>57.6185</v>
+      </c>
+      <c r="F37">
+        <v>58.6285</v>
+      </c>
+      <c r="G37">
+        <v>6.66</v>
+      </c>
+      <c r="H37">
+        <v>166.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>14.2</v>
+      </c>
+      <c r="K37">
+        <v>0.127</v>
+      </c>
+      <c r="L37">
+        <v>14.073</v>
+      </c>
+      <c r="M37">
+        <v>0.9497817</v>
+      </c>
+      <c r="N37">
+        <v>13.1232183</v>
+      </c>
+      <c r="O37">
+        <v>3.674501124</v>
+      </c>
+      <c r="P37">
+        <v>9.448717175999999</v>
+      </c>
+      <c r="Q37">
+        <v>9.575717175999999</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07399239371917725</v>
+      </c>
+      <c r="T37">
+        <v>1.370601561846976</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.28</v>
+      </c>
+      <c r="W37">
+        <v>0.011664</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>14.81708902161412</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.05207056359310944</v>
+      </c>
+      <c r="C38">
+        <v>118.2654498210567</v>
+      </c>
+      <c r="D38">
+        <v>171.9090498210567</v>
+      </c>
+      <c r="E38">
+        <v>59.2936</v>
+      </c>
+      <c r="F38">
+        <v>60.3036</v>
+      </c>
+      <c r="G38">
+        <v>6.66</v>
+      </c>
+      <c r="H38">
+        <v>166.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>14.2</v>
+      </c>
+      <c r="K38">
+        <v>0.127</v>
+      </c>
+      <c r="L38">
+        <v>14.073</v>
+      </c>
+      <c r="M38">
+        <v>0.9769183199999999</v>
+      </c>
+      <c r="N38">
+        <v>13.09608168</v>
+      </c>
+      <c r="O38">
+        <v>3.6669028704</v>
+      </c>
+      <c r="P38">
+        <v>9.4291788096</v>
+      </c>
+      <c r="Q38">
+        <v>9.5561788096</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07479925561423351</v>
+      </c>
+      <c r="T38">
+        <v>1.387696093521896</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.28</v>
+      </c>
+      <c r="W38">
+        <v>0.011664</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>14.40550321545818</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.05196367126875368</v>
+      </c>
+      <c r="C39">
+        <v>116.9035825442934</v>
+      </c>
+      <c r="D39">
+        <v>172.2222825442934</v>
+      </c>
+      <c r="E39">
+        <v>60.9687</v>
+      </c>
+      <c r="F39">
+        <v>61.9787</v>
+      </c>
+      <c r="G39">
+        <v>6.66</v>
+      </c>
+      <c r="H39">
+        <v>166.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>14.2</v>
+      </c>
+      <c r="K39">
+        <v>0.127</v>
+      </c>
+      <c r="L39">
+        <v>14.073</v>
+      </c>
+      <c r="M39">
+        <v>1.00405494</v>
+      </c>
+      <c r="N39">
+        <v>13.06894506</v>
+      </c>
+      <c r="O39">
+        <v>3.6593046168</v>
+      </c>
+      <c r="P39">
+        <v>9.409640443199999</v>
+      </c>
+      <c r="Q39">
+        <v>9.5366404432</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07563173217262488</v>
+      </c>
+      <c r="T39">
+        <v>1.405333308742053</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.28</v>
+      </c>
+      <c r="W39">
+        <v>0.011664</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>14.01616529071607</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.05229453894439791</v>
+      </c>
+      <c r="C40">
+        <v>114.2626028771662</v>
+      </c>
+      <c r="D40">
+        <v>171.2564028771662</v>
+      </c>
+      <c r="E40">
+        <v>62.6438</v>
+      </c>
+      <c r="F40">
+        <v>63.6538</v>
+      </c>
+      <c r="G40">
+        <v>6.66</v>
+      </c>
+      <c r="H40">
+        <v>166.5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>14.2</v>
+      </c>
+      <c r="K40">
+        <v>0.127</v>
+      </c>
+      <c r="L40">
+        <v>14.073</v>
+      </c>
+      <c r="M40">
+        <v>1.13303764</v>
+      </c>
+      <c r="N40">
+        <v>12.93996236</v>
+      </c>
+      <c r="O40">
+        <v>3.6231894608</v>
+      </c>
+      <c r="P40">
+        <v>9.3167728992</v>
+      </c>
+      <c r="Q40">
+        <v>9.443772899200001</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.07649106281354502</v>
+      </c>
+      <c r="T40">
+        <v>1.423539466388666</v>
+      </c>
+      <c r="U40">
+        <v>0.0178</v>
+      </c>
+      <c r="V40">
+        <v>0.28</v>
+      </c>
+      <c r="W40">
+        <v>0.012816</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>12.42059354709522</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.05219916662004214</v>
+      </c>
+      <c r="C41">
+        <v>112.8648037103127</v>
+      </c>
+      <c r="D41">
+        <v>171.5337037103127</v>
+      </c>
+      <c r="E41">
+        <v>64.3189</v>
+      </c>
+      <c r="F41">
+        <v>65.3289</v>
+      </c>
+      <c r="G41">
+        <v>6.66</v>
+      </c>
+      <c r="H41">
+        <v>166.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>14.2</v>
+      </c>
+      <c r="K41">
+        <v>0.127</v>
+      </c>
+      <c r="L41">
+        <v>14.073</v>
+      </c>
+      <c r="M41">
+        <v>1.16285442</v>
+      </c>
+      <c r="N41">
+        <v>12.91014558</v>
+      </c>
+      <c r="O41">
+        <v>3.6148407624</v>
+      </c>
+      <c r="P41">
+        <v>9.295304817599998</v>
+      </c>
+      <c r="Q41">
+        <v>9.422304817599999</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.07737856822957728</v>
+      </c>
+      <c r="T41">
+        <v>1.442342547236807</v>
+      </c>
+      <c r="U41">
+        <v>0.0178</v>
+      </c>
+      <c r="V41">
+        <v>0.28</v>
+      </c>
+      <c r="W41">
+        <v>0.012816</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>12.10211678947739</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.05210379429568637</v>
+      </c>
+      <c r="C42">
+        <v>111.4679040189056</v>
+      </c>
+      <c r="D42">
+        <v>171.8119040189056</v>
+      </c>
+      <c r="E42">
+        <v>65.994</v>
+      </c>
+      <c r="F42">
+        <v>67.004</v>
+      </c>
+      <c r="G42">
+        <v>6.66</v>
+      </c>
+      <c r="H42">
+        <v>166.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>14.2</v>
+      </c>
+      <c r="K42">
+        <v>0.127</v>
+      </c>
+      <c r="L42">
+        <v>14.073</v>
+      </c>
+      <c r="M42">
+        <v>1.1926712</v>
+      </c>
+      <c r="N42">
+        <v>12.8803288</v>
+      </c>
+      <c r="O42">
+        <v>3.606492064</v>
+      </c>
+      <c r="P42">
+        <v>9.273836736</v>
+      </c>
+      <c r="Q42">
+        <v>9.400836736</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.07829565715947728</v>
+      </c>
+      <c r="T42">
+        <v>1.461772397446553</v>
+      </c>
+      <c r="U42">
+        <v>0.0178</v>
+      </c>
+      <c r="V42">
+        <v>0.28</v>
+      </c>
+      <c r="W42">
+        <v>0.012816</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>11.79956386974046</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.05200842197133061</v>
+      </c>
+      <c r="C43">
+        <v>110.0719081864713</v>
+      </c>
+      <c r="D43">
+        <v>172.0910081864714</v>
+      </c>
+      <c r="E43">
+        <v>67.6691</v>
+      </c>
+      <c r="F43">
+        <v>68.67910000000001</v>
+      </c>
+      <c r="G43">
+        <v>6.66</v>
+      </c>
+      <c r="H43">
+        <v>166.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>14.2</v>
+      </c>
+      <c r="K43">
+        <v>0.127</v>
+      </c>
+      <c r="L43">
+        <v>14.073</v>
+      </c>
+      <c r="M43">
+        <v>1.22248798</v>
+      </c>
+      <c r="N43">
+        <v>12.85051202</v>
+      </c>
+      <c r="O43">
+        <v>3.5981433656</v>
+      </c>
+      <c r="P43">
+        <v>9.252368654399998</v>
+      </c>
+      <c r="Q43">
+        <v>9.379368654399999</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.0792438338497129</v>
+      </c>
+      <c r="T43">
+        <v>1.48186088664646</v>
+      </c>
+      <c r="U43">
+        <v>0.0178</v>
+      </c>
+      <c r="V43">
+        <v>0.28</v>
+      </c>
+      <c r="W43">
+        <v>0.012816</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>11.51176962901508</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.05191304964697484</v>
+      </c>
+      <c r="C44">
+        <v>108.6768206250665</v>
+      </c>
+      <c r="D44">
+        <v>172.3710206250665</v>
+      </c>
+      <c r="E44">
+        <v>69.34419999999999</v>
+      </c>
+      <c r="F44">
+        <v>70.35419999999999</v>
+      </c>
+      <c r="G44">
+        <v>6.66</v>
+      </c>
+      <c r="H44">
+        <v>166.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>14.2</v>
+      </c>
+      <c r="K44">
+        <v>0.127</v>
+      </c>
+      <c r="L44">
+        <v>14.073</v>
+      </c>
+      <c r="M44">
+        <v>1.25230476</v>
+      </c>
+      <c r="N44">
+        <v>12.82069524</v>
+      </c>
+      <c r="O44">
+        <v>3.5897946672</v>
+      </c>
+      <c r="P44">
+        <v>9.2309005728</v>
+      </c>
+      <c r="Q44">
+        <v>9.3579005728</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08022470628788765</v>
+      </c>
+      <c r="T44">
+        <v>1.502642082370501</v>
+      </c>
+      <c r="U44">
+        <v>0.0178</v>
+      </c>
+      <c r="V44">
+        <v>0.28</v>
+      </c>
+      <c r="W44">
+        <v>0.012816</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>11.2376798759433</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.05181767732261908</v>
+      </c>
+      <c r="C45">
+        <v>107.2826457755103</v>
+      </c>
+      <c r="D45">
+        <v>172.6519457755103</v>
+      </c>
+      <c r="E45">
+        <v>71.01929999999999</v>
+      </c>
+      <c r="F45">
+        <v>72.02929999999999</v>
+      </c>
+      <c r="G45">
+        <v>6.66</v>
+      </c>
+      <c r="H45">
+        <v>166.5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>14.2</v>
+      </c>
+      <c r="K45">
+        <v>0.127</v>
+      </c>
+      <c r="L45">
+        <v>14.073</v>
+      </c>
+      <c r="M45">
+        <v>1.28212154</v>
+      </c>
+      <c r="N45">
+        <v>12.79087846</v>
+      </c>
+      <c r="O45">
+        <v>3.5814459688</v>
+      </c>
+      <c r="P45">
+        <v>9.209432491199998</v>
+      </c>
+      <c r="Q45">
+        <v>9.336432491199998</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08123999530284047</v>
+      </c>
+      <c r="T45">
+        <v>1.52415244285679</v>
+      </c>
+      <c r="U45">
+        <v>0.0178</v>
+      </c>
+      <c r="V45">
+        <v>0.28</v>
+      </c>
+      <c r="W45">
+        <v>0.012816</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>10.9763384834795</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.0517223049982633</v>
+      </c>
+      <c r="C46">
+        <v>105.8893881076191</v>
+      </c>
+      <c r="D46">
+        <v>172.9337881076191</v>
+      </c>
+      <c r="E46">
+        <v>72.69439999999999</v>
+      </c>
+      <c r="F46">
+        <v>73.70439999999999</v>
+      </c>
+      <c r="G46">
+        <v>6.66</v>
+      </c>
+      <c r="H46">
+        <v>166.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>14.2</v>
+      </c>
+      <c r="K46">
+        <v>0.127</v>
+      </c>
+      <c r="L46">
+        <v>14.073</v>
+      </c>
+      <c r="M46">
+        <v>1.31193832</v>
+      </c>
+      <c r="N46">
+        <v>12.76106168</v>
+      </c>
+      <c r="O46">
+        <v>3.5730972704</v>
+      </c>
+      <c r="P46">
+        <v>9.187964409599999</v>
+      </c>
+      <c r="Q46">
+        <v>9.3149644096</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.0822915446397559</v>
+      </c>
+      <c r="T46">
+        <v>1.546431030503303</v>
+      </c>
+      <c r="U46">
+        <v>0.0178</v>
+      </c>
+      <c r="V46">
+        <v>0.28</v>
+      </c>
+      <c r="W46">
+        <v>0.012816</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>10.7268762452186</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.05233973267390753</v>
+      </c>
+      <c r="C47">
+        <v>102.4058122087569</v>
+      </c>
+      <c r="D47">
+        <v>171.1253122087569</v>
+      </c>
+      <c r="E47">
+        <v>74.36949999999999</v>
+      </c>
+      <c r="F47">
+        <v>75.37949999999999</v>
+      </c>
+      <c r="G47">
+        <v>6.66</v>
+      </c>
+      <c r="H47">
+        <v>166.5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>14.2</v>
+      </c>
+      <c r="K47">
+        <v>0.127</v>
+      </c>
+      <c r="L47">
+        <v>14.073</v>
+      </c>
+      <c r="M47">
+        <v>1.50759</v>
+      </c>
+      <c r="N47">
+        <v>12.56541</v>
+      </c>
+      <c r="O47">
+        <v>3.5183148</v>
+      </c>
+      <c r="P47">
+        <v>9.047095199999999</v>
+      </c>
+      <c r="Q47">
+        <v>9.1740952</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08338133213437732</v>
+      </c>
+      <c r="T47">
+        <v>1.569519748609689</v>
+      </c>
+      <c r="U47">
+        <v>0.02</v>
+      </c>
+      <c r="V47">
+        <v>0.28</v>
+      </c>
+      <c r="W47">
+        <v>0.0144</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>9.3347660836169</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.05226020034955177</v>
+      </c>
+      <c r="C48">
+        <v>100.9615410792855</v>
+      </c>
+      <c r="D48">
+        <v>171.3561410792855</v>
+      </c>
+      <c r="E48">
+        <v>76.04459999999999</v>
+      </c>
+      <c r="F48">
+        <v>77.05459999999999</v>
+      </c>
+      <c r="G48">
+        <v>6.66</v>
+      </c>
+      <c r="H48">
+        <v>166.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>14.2</v>
+      </c>
+      <c r="K48">
+        <v>0.127</v>
+      </c>
+      <c r="L48">
+        <v>14.073</v>
+      </c>
+      <c r="M48">
+        <v>1.541092</v>
+      </c>
+      <c r="N48">
+        <v>12.531908</v>
+      </c>
+      <c r="O48">
+        <v>3.50893424</v>
+      </c>
+      <c r="P48">
+        <v>9.022973759999999</v>
+      </c>
+      <c r="Q48">
+        <v>9.14997376</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.08451148212879957</v>
+      </c>
+      <c r="T48">
+        <v>1.59346360442372</v>
+      </c>
+      <c r="U48">
+        <v>0.02</v>
+      </c>
+      <c r="V48">
+        <v>0.28</v>
+      </c>
+      <c r="W48">
+        <v>0.0144</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>9.131836386146967</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.052180668025196</v>
+      </c>
+      <c r="C49">
+        <v>99.51789351549549</v>
+      </c>
+      <c r="D49">
+        <v>171.5875935154955</v>
+      </c>
+      <c r="E49">
+        <v>77.71969999999999</v>
+      </c>
+      <c r="F49">
+        <v>78.72969999999999</v>
+      </c>
+      <c r="G49">
+        <v>6.66</v>
+      </c>
+      <c r="H49">
+        <v>166.5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>14.2</v>
+      </c>
+      <c r="K49">
+        <v>0.127</v>
+      </c>
+      <c r="L49">
+        <v>14.073</v>
+      </c>
+      <c r="M49">
+        <v>1.574594</v>
+      </c>
+      <c r="N49">
+        <v>12.498406</v>
+      </c>
+      <c r="O49">
+        <v>3.49955368</v>
+      </c>
+      <c r="P49">
+        <v>8.998852319999999</v>
+      </c>
+      <c r="Q49">
+        <v>9.12585232</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.08568427929282263</v>
+      </c>
+      <c r="T49">
+        <v>1.618311001966581</v>
+      </c>
+      <c r="U49">
+        <v>0.02</v>
+      </c>
+      <c r="V49">
+        <v>0.28</v>
+      </c>
+      <c r="W49">
+        <v>0.0144</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>8.937541994952351</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.05210113570084023</v>
+      </c>
+      <c r="C50">
+        <v>98.07487204757334</v>
+      </c>
+      <c r="D50">
+        <v>171.8196720475733</v>
+      </c>
+      <c r="E50">
+        <v>79.39479999999999</v>
+      </c>
+      <c r="F50">
+        <v>80.40479999999999</v>
+      </c>
+      <c r="G50">
+        <v>6.66</v>
+      </c>
+      <c r="H50">
+        <v>166.5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>14.2</v>
+      </c>
+      <c r="K50">
+        <v>0.127</v>
+      </c>
+      <c r="L50">
+        <v>14.073</v>
+      </c>
+      <c r="M50">
+        <v>1.608096</v>
+      </c>
+      <c r="N50">
+        <v>12.464904</v>
+      </c>
+      <c r="O50">
+        <v>3.49017312</v>
+      </c>
+      <c r="P50">
+        <v>8.974730879999999</v>
+      </c>
+      <c r="Q50">
+        <v>9.10173088</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.08690218404007735</v>
+      </c>
+      <c r="T50">
+        <v>1.644114068645707</v>
+      </c>
+      <c r="U50">
+        <v>0.02</v>
+      </c>
+      <c r="V50">
+        <v>0.28</v>
+      </c>
+      <c r="W50">
+        <v>0.0144</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>8.751343203390842</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.05202160337648446</v>
+      </c>
+      <c r="C51">
+        <v>96.6324792194129</v>
+      </c>
+      <c r="D51">
+        <v>172.0523792194129</v>
+      </c>
+      <c r="E51">
+        <v>81.06989999999999</v>
+      </c>
+      <c r="F51">
+        <v>82.07989999999999</v>
+      </c>
+      <c r="G51">
+        <v>6.66</v>
+      </c>
+      <c r="H51">
+        <v>166.5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>14.2</v>
+      </c>
+      <c r="K51">
+        <v>0.127</v>
+      </c>
+      <c r="L51">
+        <v>14.073</v>
+      </c>
+      <c r="M51">
+        <v>1.641598</v>
+      </c>
+      <c r="N51">
+        <v>12.431402</v>
+      </c>
+      <c r="O51">
+        <v>3.48079256</v>
+      </c>
+      <c r="P51">
+        <v>8.950609439999999</v>
+      </c>
+      <c r="Q51">
+        <v>9.07760944</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.08816784975781267</v>
+      </c>
+      <c r="T51">
+        <v>1.670929020292641</v>
+      </c>
+      <c r="U51">
+        <v>0.02</v>
+      </c>
+      <c r="V51">
+        <v>0.28</v>
+      </c>
+      <c r="W51">
+        <v>0.0144</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>8.572744362505315</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.05194207105212869</v>
+      </c>
+      <c r="C52">
+        <v>95.19071758870808</v>
+      </c>
+      <c r="D52">
+        <v>172.2857175887081</v>
+      </c>
+      <c r="E52">
+        <v>82.74499999999999</v>
+      </c>
+      <c r="F52">
+        <v>83.755</v>
+      </c>
+      <c r="G52">
+        <v>6.66</v>
+      </c>
+      <c r="H52">
+        <v>166.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>14.2</v>
+      </c>
+      <c r="K52">
+        <v>0.127</v>
+      </c>
+      <c r="L52">
+        <v>14.073</v>
+      </c>
+      <c r="M52">
+        <v>1.6751</v>
+      </c>
+      <c r="N52">
+        <v>12.3979</v>
+      </c>
+      <c r="O52">
+        <v>3.471412</v>
+      </c>
+      <c r="P52">
+        <v>8.926487999999999</v>
+      </c>
+      <c r="Q52">
+        <v>9.053488</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.08948414210425738</v>
+      </c>
+      <c r="T52">
+        <v>1.698816570005453</v>
+      </c>
+      <c r="U52">
+        <v>0.02</v>
+      </c>
+      <c r="V52">
+        <v>0.28</v>
+      </c>
+      <c r="W52">
+        <v>0.0144</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>8.401289475255211</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.05186253872777292</v>
+      </c>
+      <c r="C53">
+        <v>93.74958972704677</v>
+      </c>
+      <c r="D53">
+        <v>172.5196897270468</v>
+      </c>
+      <c r="E53">
+        <v>84.42009999999999</v>
+      </c>
+      <c r="F53">
+        <v>85.4301</v>
+      </c>
+      <c r="G53">
+        <v>6.66</v>
+      </c>
+      <c r="H53">
+        <v>166.5</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>14.2</v>
+      </c>
+      <c r="K53">
+        <v>0.127</v>
+      </c>
+      <c r="L53">
+        <v>14.073</v>
+      </c>
+      <c r="M53">
+        <v>1.708602</v>
+      </c>
+      <c r="N53">
+        <v>12.364398</v>
+      </c>
+      <c r="O53">
+        <v>3.46203144</v>
+      </c>
+      <c r="P53">
+        <v>8.902366559999999</v>
+      </c>
+      <c r="Q53">
+        <v>9.02936656</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.09085416066892434</v>
+      </c>
+      <c r="T53">
+        <v>1.727842387053482</v>
+      </c>
+      <c r="U53">
+        <v>0.02</v>
+      </c>
+      <c r="V53">
+        <v>0.28</v>
+      </c>
+      <c r="W53">
+        <v>0.0144</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>8.236558309073736</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.05178300640341716</v>
+      </c>
+      <c r="C54">
+        <v>92.30909822000507</v>
+      </c>
+      <c r="D54">
+        <v>172.7542982200051</v>
+      </c>
+      <c r="E54">
+        <v>86.09519999999999</v>
+      </c>
+      <c r="F54">
+        <v>87.1052</v>
+      </c>
+      <c r="G54">
+        <v>6.66</v>
+      </c>
+      <c r="H54">
+        <v>166.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>14.2</v>
+      </c>
+      <c r="K54">
+        <v>0.127</v>
+      </c>
+      <c r="L54">
+        <v>14.073</v>
+      </c>
+      <c r="M54">
+        <v>1.742104</v>
+      </c>
+      <c r="N54">
+        <v>12.330896</v>
+      </c>
+      <c r="O54">
+        <v>3.45265088</v>
+      </c>
+      <c r="P54">
+        <v>8.878245119999999</v>
+      </c>
+      <c r="Q54">
+        <v>9.00524512</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.09228126334045242</v>
+      </c>
+      <c r="T54">
+        <v>1.758077613145178</v>
+      </c>
+      <c r="U54">
+        <v>0.02</v>
+      </c>
+      <c r="V54">
+        <v>0.28</v>
+      </c>
+      <c r="W54">
+        <v>0.0144</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>8.078162956976163</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.0517034740790614</v>
+      </c>
+      <c r="C55">
+        <v>90.86924566724282</v>
+      </c>
+      <c r="D55">
+        <v>172.9895456672428</v>
+      </c>
+      <c r="E55">
+        <v>87.77029999999999</v>
+      </c>
+      <c r="F55">
+        <v>88.7803</v>
+      </c>
+      <c r="G55">
+        <v>6.66</v>
+      </c>
+      <c r="H55">
+        <v>166.5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>14.2</v>
+      </c>
+      <c r="K55">
+        <v>0.127</v>
+      </c>
+      <c r="L55">
+        <v>14.073</v>
+      </c>
+      <c r="M55">
+        <v>1.775606</v>
+      </c>
+      <c r="N55">
+        <v>12.297394</v>
+      </c>
+      <c r="O55">
+        <v>3.44327032</v>
+      </c>
+      <c r="P55">
+        <v>8.854123679999999</v>
+      </c>
+      <c r="Q55">
+        <v>8.98112368</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.09376909378523701</v>
+      </c>
+      <c r="T55">
+        <v>1.789599444602479</v>
+      </c>
+      <c r="U55">
+        <v>0.02</v>
+      </c>
+      <c r="V55">
+        <v>0.28</v>
+      </c>
+      <c r="W55">
+        <v>0.0144</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>7.925744787976613</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.05205162175470562</v>
+      </c>
+      <c r="C56">
+        <v>88.1690730884217</v>
+      </c>
+      <c r="D56">
+        <v>171.9644730884217</v>
+      </c>
+      <c r="E56">
+        <v>89.44539999999999</v>
+      </c>
+      <c r="F56">
+        <v>90.4554</v>
+      </c>
+      <c r="G56">
+        <v>6.66</v>
+      </c>
+      <c r="H56">
+        <v>166.5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>14.2</v>
+      </c>
+      <c r="K56">
+        <v>0.127</v>
+      </c>
+      <c r="L56">
+        <v>14.073</v>
+      </c>
+      <c r="M56">
+        <v>1.90860894</v>
+      </c>
+      <c r="N56">
+        <v>12.16439106</v>
+      </c>
+      <c r="O56">
+        <v>3.4060294968</v>
+      </c>
+      <c r="P56">
+        <v>8.758361563199998</v>
+      </c>
+      <c r="Q56">
+        <v>8.885361563199998</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.09532161251022961</v>
+      </c>
+      <c r="T56">
+        <v>1.822491790470966</v>
+      </c>
+      <c r="U56">
+        <v>0.0211</v>
+      </c>
+      <c r="V56">
+        <v>0.28</v>
+      </c>
+      <c r="W56">
+        <v>0.015192</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>7.373432925447786</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.05198000943034986</v>
+      </c>
+      <c r="C57">
+        <v>86.70383200903238</v>
+      </c>
+      <c r="D57">
+        <v>172.1743320090324</v>
+      </c>
+      <c r="E57">
+        <v>91.12049999999999</v>
+      </c>
+      <c r="F57">
+        <v>92.1305</v>
+      </c>
+      <c r="G57">
+        <v>6.66</v>
+      </c>
+      <c r="H57">
+        <v>166.5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>14.2</v>
+      </c>
+      <c r="K57">
+        <v>0.127</v>
+      </c>
+      <c r="L57">
+        <v>14.073</v>
+      </c>
+      <c r="M57">
+        <v>1.94395355</v>
+      </c>
+      <c r="N57">
+        <v>12.12904645</v>
+      </c>
+      <c r="O57">
+        <v>3.396133006</v>
+      </c>
+      <c r="P57">
+        <v>8.732913443999999</v>
+      </c>
+      <c r="Q57">
+        <v>8.859913444</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.09694313206744413</v>
+      </c>
+      <c r="T57">
+        <v>1.856846018378054</v>
+      </c>
+      <c r="U57">
+        <v>0.0211</v>
+      </c>
+      <c r="V57">
+        <v>0.28</v>
+      </c>
+      <c r="W57">
+        <v>0.015192</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>7.239370508621463</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.05190839710599408</v>
+      </c>
+      <c r="C58">
+        <v>85.23910376321993</v>
+      </c>
+      <c r="D58">
+        <v>172.3847037632199</v>
+      </c>
+      <c r="E58">
+        <v>92.79559999999999</v>
+      </c>
+      <c r="F58">
+        <v>93.8056</v>
+      </c>
+      <c r="G58">
+        <v>6.66</v>
+      </c>
+      <c r="H58">
+        <v>166.5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>14.2</v>
+      </c>
+      <c r="K58">
+        <v>0.127</v>
+      </c>
+      <c r="L58">
+        <v>14.073</v>
+      </c>
+      <c r="M58">
+        <v>1.97929816</v>
+      </c>
+      <c r="N58">
+        <v>12.09370184</v>
+      </c>
+      <c r="O58">
+        <v>3.3862365152</v>
+      </c>
+      <c r="P58">
+        <v>8.707465324799998</v>
+      </c>
+      <c r="Q58">
+        <v>8.834465324799998</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.09863835705907747</v>
+      </c>
+      <c r="T58">
+        <v>1.892761802099099</v>
+      </c>
+      <c r="U58">
+        <v>0.0211</v>
+      </c>
+      <c r="V58">
+        <v>0.28</v>
+      </c>
+      <c r="W58">
+        <v>0.015192</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>7.110096035253222</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.05183678478163832</v>
+      </c>
+      <c r="C59">
+        <v>83.77489023310595</v>
+      </c>
+      <c r="D59">
+        <v>172.595590233106</v>
+      </c>
+      <c r="E59">
+        <v>94.47069999999999</v>
+      </c>
+      <c r="F59">
+        <v>95.4807</v>
+      </c>
+      <c r="G59">
+        <v>6.66</v>
+      </c>
+      <c r="H59">
+        <v>166.5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>14.2</v>
+      </c>
+      <c r="K59">
+        <v>0.127</v>
+      </c>
+      <c r="L59">
+        <v>14.073</v>
+      </c>
+      <c r="M59">
+        <v>2.01464277</v>
+      </c>
+      <c r="N59">
+        <v>12.05835723</v>
+      </c>
+      <c r="O59">
+        <v>3.3763400244</v>
+      </c>
+      <c r="P59">
+        <v>8.682017205599998</v>
+      </c>
+      <c r="Q59">
+        <v>8.809017205599998</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1004124297247403</v>
+      </c>
+      <c r="T59">
+        <v>1.930348087388565</v>
+      </c>
+      <c r="U59">
+        <v>0.0211</v>
+      </c>
+      <c r="V59">
+        <v>0.28</v>
+      </c>
+      <c r="W59">
+        <v>0.015192</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>6.985357508318955</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.05176517245728255</v>
+      </c>
+      <c r="C60">
+        <v>82.31119331003343</v>
+      </c>
+      <c r="D60">
+        <v>172.8069933100334</v>
+      </c>
+      <c r="E60">
+        <v>96.14579999999998</v>
+      </c>
+      <c r="F60">
+        <v>97.15579999999999</v>
+      </c>
+      <c r="G60">
+        <v>6.66</v>
+      </c>
+      <c r="H60">
+        <v>166.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>14.2</v>
+      </c>
+      <c r="K60">
+        <v>0.127</v>
+      </c>
+      <c r="L60">
+        <v>14.073</v>
+      </c>
+      <c r="M60">
+        <v>2.04998738</v>
+      </c>
+      <c r="N60">
+        <v>12.02301262</v>
+      </c>
+      <c r="O60">
+        <v>3.3664435336</v>
+      </c>
+      <c r="P60">
+        <v>8.656569086399999</v>
+      </c>
+      <c r="Q60">
+        <v>8.7835690864</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1022709820411489</v>
+      </c>
+      <c r="T60">
+        <v>1.969724195787053</v>
+      </c>
+      <c r="U60">
+        <v>0.0211</v>
+      </c>
+      <c r="V60">
+        <v>0.28</v>
+      </c>
+      <c r="W60">
+        <v>0.015192</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>6.864920309899665</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.05169356013292678</v>
+      </c>
+      <c r="C61">
+        <v>80.84801489462299</v>
+      </c>
+      <c r="D61">
+        <v>173.018914894623</v>
+      </c>
+      <c r="E61">
+        <v>97.82089999999998</v>
+      </c>
+      <c r="F61">
+        <v>98.83089999999999</v>
+      </c>
+      <c r="G61">
+        <v>6.66</v>
+      </c>
+      <c r="H61">
+        <v>166.5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>14.2</v>
+      </c>
+      <c r="K61">
+        <v>0.127</v>
+      </c>
+      <c r="L61">
+        <v>14.073</v>
+      </c>
+      <c r="M61">
+        <v>2.08533199</v>
+      </c>
+      <c r="N61">
+        <v>11.98766801</v>
+      </c>
+      <c r="O61">
+        <v>3.3565470428</v>
+      </c>
+      <c r="P61">
+        <v>8.631120967199998</v>
+      </c>
+      <c r="Q61">
+        <v>8.758120967199998</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1042201954461629</v>
+      </c>
+      <c r="T61">
+        <v>2.011021089961078</v>
+      </c>
+      <c r="U61">
+        <v>0.0211</v>
+      </c>
+      <c r="V61">
+        <v>0.28</v>
+      </c>
+      <c r="W61">
+        <v>0.015192</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>6.74856572837594</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.05162194780857102</v>
+      </c>
+      <c r="C62">
+        <v>79.38535689683012</v>
+      </c>
+      <c r="D62">
+        <v>173.2313568968301</v>
+      </c>
+      <c r="E62">
+        <v>99.49599999999998</v>
+      </c>
+      <c r="F62">
+        <v>100.506</v>
+      </c>
+      <c r="G62">
+        <v>6.66</v>
+      </c>
+      <c r="H62">
+        <v>166.5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>14.2</v>
+      </c>
+      <c r="K62">
+        <v>0.127</v>
+      </c>
+      <c r="L62">
+        <v>14.073</v>
+      </c>
+      <c r="M62">
+        <v>2.1206766</v>
+      </c>
+      <c r="N62">
+        <v>11.9523234</v>
+      </c>
+      <c r="O62">
+        <v>3.346650552</v>
+      </c>
+      <c r="P62">
+        <v>8.605672847999999</v>
+      </c>
+      <c r="Q62">
+        <v>8.732672848</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1062668695214275</v>
+      </c>
+      <c r="T62">
+        <v>2.054382828843804</v>
+      </c>
+      <c r="U62">
+        <v>0.0211</v>
+      </c>
+      <c r="V62">
+        <v>0.28</v>
+      </c>
+      <c r="W62">
+        <v>0.015192</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>6.636089632903008</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.05155033548421524</v>
+      </c>
+      <c r="C63">
+        <v>77.92322123600238</v>
+      </c>
+      <c r="D63">
+        <v>173.4443212360024</v>
+      </c>
+      <c r="E63">
+        <v>101.1711</v>
+      </c>
+      <c r="F63">
+        <v>102.1811</v>
+      </c>
+      <c r="G63">
+        <v>6.66</v>
+      </c>
+      <c r="H63">
+        <v>166.5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>14.2</v>
+      </c>
+      <c r="K63">
+        <v>0.127</v>
+      </c>
+      <c r="L63">
+        <v>14.073</v>
+      </c>
+      <c r="M63">
+        <v>2.15602121</v>
+      </c>
+      <c r="N63">
+        <v>11.91697879</v>
+      </c>
+      <c r="O63">
+        <v>3.3367540612</v>
+      </c>
+      <c r="P63">
+        <v>8.580224728799998</v>
+      </c>
+      <c r="Q63">
+        <v>8.707224728799998</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1084185012415776</v>
+      </c>
+      <c r="T63">
+        <v>2.099968246643592</v>
+      </c>
+      <c r="U63">
+        <v>0.0211</v>
+      </c>
+      <c r="V63">
+        <v>0.28</v>
+      </c>
+      <c r="W63">
+        <v>0.015192</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>6.527301278265254</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.05214832315985947</v>
+      </c>
+      <c r="C64">
+        <v>74.48570145800566</v>
+      </c>
+      <c r="D64">
+        <v>171.6819014580057</v>
+      </c>
+      <c r="E64">
+        <v>102.8462</v>
+      </c>
+      <c r="F64">
+        <v>103.8562</v>
+      </c>
+      <c r="G64">
+        <v>6.66</v>
+      </c>
+      <c r="H64">
+        <v>166.5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>14.2</v>
+      </c>
+      <c r="K64">
+        <v>0.127</v>
+      </c>
+      <c r="L64">
+        <v>14.073</v>
+      </c>
+      <c r="M64">
+        <v>2.347150119999999</v>
+      </c>
+      <c r="N64">
+        <v>11.72584988</v>
+      </c>
+      <c r="O64">
+        <v>3.2832379664</v>
+      </c>
+      <c r="P64">
+        <v>8.442611913599999</v>
+      </c>
+      <c r="Q64">
+        <v>8.569611913599999</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1106833767364723</v>
+      </c>
+      <c r="T64">
+        <v>2.147952896959159</v>
+      </c>
+      <c r="U64">
+        <v>0.0226</v>
+      </c>
+      <c r="V64">
+        <v>0.28</v>
+      </c>
+      <c r="W64">
+        <v>0.016272</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>5.995781812200407</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.05208751083550371</v>
+      </c>
+      <c r="C65">
+        <v>72.98819295525279</v>
+      </c>
+      <c r="D65">
+        <v>171.8594929552528</v>
+      </c>
+      <c r="E65">
+        <v>104.5213</v>
+      </c>
+      <c r="F65">
+        <v>105.5313</v>
+      </c>
+      <c r="G65">
+        <v>6.66</v>
+      </c>
+      <c r="H65">
+        <v>166.5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>14.2</v>
+      </c>
+      <c r="K65">
+        <v>0.127</v>
+      </c>
+      <c r="L65">
+        <v>14.073</v>
+      </c>
+      <c r="M65">
+        <v>2.38500738</v>
+      </c>
+      <c r="N65">
+        <v>11.68799262</v>
+      </c>
+      <c r="O65">
+        <v>3.2726379336</v>
+      </c>
+      <c r="P65">
+        <v>8.415354686399999</v>
+      </c>
+      <c r="Q65">
+        <v>8.5423546864</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1130706779337938</v>
+      </c>
+      <c r="T65">
+        <v>2.198531312156649</v>
+      </c>
+      <c r="U65">
+        <v>0.0226</v>
+      </c>
+      <c r="V65">
+        <v>0.28</v>
+      </c>
+      <c r="W65">
+        <v>0.016272</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>5.900610672324209</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.05202669851114794</v>
+      </c>
+      <c r="C66">
+        <v>71.49105224197302</v>
+      </c>
+      <c r="D66">
+        <v>172.037452241973</v>
+      </c>
+      <c r="E66">
+        <v>106.1964</v>
+      </c>
+      <c r="F66">
+        <v>107.2064</v>
+      </c>
+      <c r="G66">
+        <v>6.66</v>
+      </c>
+      <c r="H66">
+        <v>166.5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>14.2</v>
+      </c>
+      <c r="K66">
+        <v>0.127</v>
+      </c>
+      <c r="L66">
+        <v>14.073</v>
+      </c>
+      <c r="M66">
+        <v>2.42286464</v>
+      </c>
+      <c r="N66">
+        <v>11.65013536</v>
+      </c>
+      <c r="O66">
+        <v>3.2620379008</v>
+      </c>
+      <c r="P66">
+        <v>8.388097459199999</v>
+      </c>
+      <c r="Q66">
+        <v>8.5150974592</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.115590606975411</v>
+      </c>
+      <c r="T66">
+        <v>2.251919639309554</v>
+      </c>
+      <c r="U66">
+        <v>0.0226</v>
+      </c>
+      <c r="V66">
+        <v>0.28</v>
+      </c>
+      <c r="W66">
+        <v>0.016272</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>5.808413630569143</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.05196588618679217</v>
+      </c>
+      <c r="C67">
+        <v>69.99428046188085</v>
+      </c>
+      <c r="D67">
+        <v>172.2157804618809</v>
+      </c>
+      <c r="E67">
+        <v>107.8715</v>
+      </c>
+      <c r="F67">
+        <v>108.8815</v>
+      </c>
+      <c r="G67">
+        <v>6.66</v>
+      </c>
+      <c r="H67">
+        <v>166.5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>14.2</v>
+      </c>
+      <c r="K67">
+        <v>0.127</v>
+      </c>
+      <c r="L67">
+        <v>14.073</v>
+      </c>
+      <c r="M67">
+        <v>2.4607219</v>
+      </c>
+      <c r="N67">
+        <v>11.6122781</v>
+      </c>
+      <c r="O67">
+        <v>3.251437868</v>
+      </c>
+      <c r="P67">
+        <v>8.360840231999999</v>
+      </c>
+      <c r="Q67">
+        <v>8.487840232</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1182545319622633</v>
+      </c>
+      <c r="T67">
+        <v>2.308358728014054</v>
+      </c>
+      <c r="U67">
+        <v>0.0226</v>
+      </c>
+      <c r="V67">
+        <v>0.28</v>
+      </c>
+      <c r="W67">
+        <v>0.016272</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>5.71905342086808</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.05190507386243641</v>
+      </c>
+      <c r="C68">
+        <v>68.49787876343768</v>
+      </c>
+      <c r="D68">
+        <v>172.3944787634377</v>
+      </c>
+      <c r="E68">
+        <v>109.5466</v>
+      </c>
+      <c r="F68">
+        <v>110.5566</v>
+      </c>
+      <c r="G68">
+        <v>6.66</v>
+      </c>
+      <c r="H68">
+        <v>166.5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>14.2</v>
+      </c>
+      <c r="K68">
+        <v>0.127</v>
+      </c>
+      <c r="L68">
+        <v>14.073</v>
+      </c>
+      <c r="M68">
+        <v>2.49857916</v>
+      </c>
+      <c r="N68">
+        <v>11.57442084</v>
+      </c>
+      <c r="O68">
+        <v>3.2408378352</v>
+      </c>
+      <c r="P68">
+        <v>8.333583004799998</v>
+      </c>
+      <c r="Q68">
+        <v>8.460583004799998</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1210751584189306</v>
+      </c>
+      <c r="T68">
+        <v>2.368117763112937</v>
+      </c>
+      <c r="U68">
+        <v>0.0226</v>
+      </c>
+      <c r="V68">
+        <v>0.28</v>
+      </c>
+      <c r="W68">
+        <v>0.016272</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>5.632401096309472</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.05184426153808064</v>
+      </c>
+      <c r="C69">
+        <v>67.00184829987695</v>
+      </c>
+      <c r="D69">
+        <v>172.573548299877</v>
+      </c>
+      <c r="E69">
+        <v>111.2217</v>
+      </c>
+      <c r="F69">
+        <v>112.2317</v>
+      </c>
+      <c r="G69">
+        <v>6.66</v>
+      </c>
+      <c r="H69">
+        <v>166.5</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>14.2</v>
+      </c>
+      <c r="K69">
+        <v>0.127</v>
+      </c>
+      <c r="L69">
+        <v>14.073</v>
+      </c>
+      <c r="M69">
+        <v>2.53643642</v>
+      </c>
+      <c r="N69">
+        <v>11.53656358</v>
+      </c>
+      <c r="O69">
+        <v>3.2302378024</v>
+      </c>
+      <c r="P69">
+        <v>8.3063257776</v>
+      </c>
+      <c r="Q69">
+        <v>8.4333257776</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1240667319335777</v>
+      </c>
+      <c r="T69">
+        <v>2.431498557914782</v>
+      </c>
+      <c r="U69">
+        <v>0.0226</v>
+      </c>
+      <c r="V69">
+        <v>0.28</v>
+      </c>
+      <c r="W69">
+        <v>0.016272</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>5.548335408304853</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.05178344921372487</v>
+      </c>
+      <c r="C70">
+        <v>65.50619022922834</v>
+      </c>
+      <c r="D70">
+        <v>172.7529902292283</v>
+      </c>
+      <c r="E70">
+        <v>112.8968</v>
+      </c>
+      <c r="F70">
+        <v>113.9068</v>
+      </c>
+      <c r="G70">
+        <v>6.66</v>
+      </c>
+      <c r="H70">
+        <v>166.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>14.2</v>
+      </c>
+      <c r="K70">
+        <v>0.127</v>
+      </c>
+      <c r="L70">
+        <v>14.073</v>
+      </c>
+      <c r="M70">
+        <v>2.57429368</v>
+      </c>
+      <c r="N70">
+        <v>11.49870632</v>
+      </c>
+      <c r="O70">
+        <v>3.2196377696</v>
+      </c>
+      <c r="P70">
+        <v>8.279068550399998</v>
+      </c>
+      <c r="Q70">
+        <v>8.406068550399999</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1272452787928902</v>
+      </c>
+      <c r="T70">
+        <v>2.498840652391742</v>
+      </c>
+      <c r="U70">
+        <v>0.0226</v>
+      </c>
+      <c r="V70">
+        <v>0.28</v>
+      </c>
+      <c r="W70">
+        <v>0.016272</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>5.466742240535664</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.05172263688936909</v>
+      </c>
+      <c r="C71">
+        <v>64.01090571434322</v>
+      </c>
+      <c r="D71">
+        <v>172.9328057143432</v>
+      </c>
+      <c r="E71">
+        <v>114.5719</v>
+      </c>
+      <c r="F71">
+        <v>115.5819</v>
+      </c>
+      <c r="G71">
+        <v>6.66</v>
+      </c>
+      <c r="H71">
+        <v>166.5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>14.2</v>
+      </c>
+      <c r="K71">
+        <v>0.127</v>
+      </c>
+      <c r="L71">
+        <v>14.073</v>
+      </c>
+      <c r="M71">
+        <v>2.61215094</v>
+      </c>
+      <c r="N71">
+        <v>11.46084906</v>
+      </c>
+      <c r="O71">
+        <v>3.2090377368</v>
+      </c>
+      <c r="P71">
+        <v>8.251811323199998</v>
+      </c>
+      <c r="Q71">
+        <v>8.378811323199999</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1306288931915132</v>
+      </c>
+      <c r="T71">
+        <v>2.570527398125281</v>
+      </c>
+      <c r="U71">
+        <v>0.0226</v>
+      </c>
+      <c r="V71">
+        <v>0.28</v>
+      </c>
+      <c r="W71">
+        <v>0.016272</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>5.387514092122104</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.05166182456501334</v>
+      </c>
+      <c r="C72">
+        <v>62.51599592291936</v>
+      </c>
+      <c r="D72">
+        <v>173.1129959229194</v>
+      </c>
+      <c r="E72">
+        <v>116.247</v>
+      </c>
+      <c r="F72">
+        <v>117.257</v>
+      </c>
+      <c r="G72">
+        <v>6.66</v>
+      </c>
+      <c r="H72">
+        <v>166.5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>14.2</v>
+      </c>
+      <c r="K72">
+        <v>0.127</v>
+      </c>
+      <c r="L72">
+        <v>14.073</v>
+      </c>
+      <c r="M72">
+        <v>2.6500082</v>
+      </c>
+      <c r="N72">
+        <v>11.4229918</v>
+      </c>
+      <c r="O72">
+        <v>3.198437704</v>
+      </c>
+      <c r="P72">
+        <v>8.224554095999999</v>
+      </c>
+      <c r="Q72">
+        <v>8.351554095999999</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1342380818833778</v>
+      </c>
+      <c r="T72">
+        <v>2.646993260241056</v>
+      </c>
+      <c r="U72">
+        <v>0.0226</v>
+      </c>
+      <c r="V72">
+        <v>0.28</v>
+      </c>
+      <c r="W72">
+        <v>0.016272</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>5.310549605091787</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.05160101224065757</v>
+      </c>
+      <c r="C73">
+        <v>61.0214620275267</v>
+      </c>
+      <c r="D73">
+        <v>173.2935620275267</v>
+      </c>
+      <c r="E73">
+        <v>117.9221</v>
+      </c>
+      <c r="F73">
+        <v>118.9321</v>
+      </c>
+      <c r="G73">
+        <v>6.66</v>
+      </c>
+      <c r="H73">
+        <v>166.5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>14.2</v>
+      </c>
+      <c r="K73">
+        <v>0.127</v>
+      </c>
+      <c r="L73">
+        <v>14.073</v>
+      </c>
+      <c r="M73">
+        <v>2.68786546</v>
+      </c>
+      <c r="N73">
+        <v>11.38513454</v>
+      </c>
+      <c r="O73">
+        <v>3.1878376712</v>
+      </c>
+      <c r="P73">
+        <v>8.197296868799999</v>
+      </c>
+      <c r="Q73">
+        <v>8.324296868799999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1380961801401985</v>
+      </c>
+      <c r="T73">
+        <v>2.728732630088951</v>
+      </c>
+      <c r="U73">
+        <v>0.0226</v>
+      </c>
+      <c r="V73">
+        <v>0.28</v>
+      </c>
+      <c r="W73">
+        <v>0.016272</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>5.235753131780636</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.0515401999163018</v>
+      </c>
+      <c r="C74">
+        <v>59.52730520563223</v>
+      </c>
+      <c r="D74">
+        <v>173.4745052056322</v>
+      </c>
+      <c r="E74">
+        <v>119.5972</v>
+      </c>
+      <c r="F74">
+        <v>120.6072</v>
+      </c>
+      <c r="G74">
+        <v>6.66</v>
+      </c>
+      <c r="H74">
+        <v>166.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>14.2</v>
+      </c>
+      <c r="K74">
+        <v>0.127</v>
+      </c>
+      <c r="L74">
+        <v>14.073</v>
+      </c>
+      <c r="M74">
+        <v>2.72572272</v>
+      </c>
+      <c r="N74">
+        <v>11.34727728</v>
+      </c>
+      <c r="O74">
+        <v>3.1772376384</v>
+      </c>
+      <c r="P74">
+        <v>8.170039641599999</v>
+      </c>
+      <c r="Q74">
+        <v>8.2970396416</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.142229856843935</v>
+      </c>
+      <c r="T74">
+        <v>2.816310526354555</v>
+      </c>
+      <c r="U74">
+        <v>0.0226</v>
+      </c>
+      <c r="V74">
+        <v>0.28</v>
+      </c>
+      <c r="W74">
+        <v>0.016272</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>5.163034338283683</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.05147938759194602</v>
+      </c>
+      <c r="C75">
+        <v>58.03352663962602</v>
+      </c>
+      <c r="D75">
+        <v>173.655826639626</v>
+      </c>
+      <c r="E75">
+        <v>121.2723</v>
+      </c>
+      <c r="F75">
+        <v>122.2823</v>
+      </c>
+      <c r="G75">
+        <v>6.66</v>
+      </c>
+      <c r="H75">
+        <v>166.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>14.2</v>
+      </c>
+      <c r="K75">
+        <v>0.127</v>
+      </c>
+      <c r="L75">
+        <v>14.073</v>
+      </c>
+      <c r="M75">
+        <v>2.76357998</v>
+      </c>
+      <c r="N75">
+        <v>11.30942002</v>
+      </c>
+      <c r="O75">
+        <v>3.1666376056</v>
+      </c>
+      <c r="P75">
+        <v>8.142782414399999</v>
+      </c>
+      <c r="Q75">
+        <v>8.2697824144</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1466697318220223</v>
+      </c>
+      <c r="T75">
+        <v>2.910375674195388</v>
+      </c>
+      <c r="U75">
+        <v>0.0226</v>
+      </c>
+      <c r="V75">
+        <v>0.28</v>
+      </c>
+      <c r="W75">
+        <v>0.016272</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>5.092307840498975</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.05141857526759026</v>
+      </c>
+      <c r="C76">
+        <v>56.54012751684665</v>
+      </c>
+      <c r="D76">
+        <v>173.8375275168466</v>
+      </c>
+      <c r="E76">
+        <v>122.9474</v>
+      </c>
+      <c r="F76">
+        <v>123.9574</v>
+      </c>
+      <c r="G76">
+        <v>6.66</v>
+      </c>
+      <c r="H76">
+        <v>166.5</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>14.2</v>
+      </c>
+      <c r="K76">
+        <v>0.127</v>
+      </c>
+      <c r="L76">
+        <v>14.073</v>
+      </c>
+      <c r="M76">
+        <v>2.80143724</v>
+      </c>
+      <c r="N76">
+        <v>11.27156276</v>
+      </c>
+      <c r="O76">
+        <v>3.1560375728</v>
+      </c>
+      <c r="P76">
+        <v>8.115525187199999</v>
+      </c>
+      <c r="Q76">
+        <v>8.2425251872</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1514511356445779</v>
+      </c>
+      <c r="T76">
+        <v>3.011676602639363</v>
+      </c>
+      <c r="U76">
+        <v>0.0226</v>
+      </c>
+      <c r="V76">
+        <v>0.28</v>
+      </c>
+      <c r="W76">
+        <v>0.016272</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>5.023492869681421</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.0513577629432345</v>
+      </c>
+      <c r="C77">
+        <v>55.04710902960744</v>
+      </c>
+      <c r="D77">
+        <v>174.0196090296074</v>
+      </c>
+      <c r="E77">
+        <v>124.6225</v>
+      </c>
+      <c r="F77">
+        <v>125.6325</v>
+      </c>
+      <c r="G77">
+        <v>6.66</v>
+      </c>
+      <c r="H77">
+        <v>166.5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>14.2</v>
+      </c>
+      <c r="K77">
+        <v>0.127</v>
+      </c>
+      <c r="L77">
+        <v>14.073</v>
+      </c>
+      <c r="M77">
+        <v>2.8392945</v>
+      </c>
+      <c r="N77">
+        <v>11.2337055</v>
+      </c>
+      <c r="O77">
+        <v>3.14543754</v>
+      </c>
+      <c r="P77">
+        <v>8.08826796</v>
+      </c>
+      <c r="Q77">
+        <v>8.21526796</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.156615051772938</v>
+      </c>
+      <c r="T77">
+        <v>3.121081605358856</v>
+      </c>
+      <c r="U77">
+        <v>0.0226</v>
+      </c>
+      <c r="V77">
+        <v>0.28</v>
+      </c>
+      <c r="W77">
+        <v>0.016272</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>4.956512964752335</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.05129695061887873</v>
+      </c>
+      <c r="C78">
+        <v>53.5544723752224</v>
+      </c>
+      <c r="D78">
+        <v>174.2020723752224</v>
+      </c>
+      <c r="E78">
+        <v>126.2976</v>
+      </c>
+      <c r="F78">
+        <v>127.3076</v>
+      </c>
+      <c r="G78">
+        <v>6.66</v>
+      </c>
+      <c r="H78">
+        <v>166.5</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>14.2</v>
+      </c>
+      <c r="K78">
+        <v>0.127</v>
+      </c>
+      <c r="L78">
+        <v>14.073</v>
+      </c>
+      <c r="M78">
+        <v>2.87715176</v>
+      </c>
+      <c r="N78">
+        <v>11.19584824</v>
+      </c>
+      <c r="O78">
+        <v>3.1348375072</v>
+      </c>
+      <c r="P78">
+        <v>8.061010732799998</v>
+      </c>
+      <c r="Q78">
+        <v>8.188010732799999</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.162209294245328</v>
+      </c>
+      <c r="T78">
+        <v>3.239603691638306</v>
+      </c>
+      <c r="U78">
+        <v>0.0226</v>
+      </c>
+      <c r="V78">
+        <v>0.28</v>
+      </c>
+      <c r="W78">
+        <v>0.016272</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>4.89129568890033</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.05123613829452295</v>
+      </c>
+      <c r="C79">
+        <v>52.06221875603231</v>
+      </c>
+      <c r="D79">
+        <v>174.3849187560323</v>
+      </c>
+      <c r="E79">
+        <v>127.9727</v>
+      </c>
+      <c r="F79">
+        <v>128.9827</v>
+      </c>
+      <c r="G79">
+        <v>6.66</v>
+      </c>
+      <c r="H79">
+        <v>166.5</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>14.2</v>
+      </c>
+      <c r="K79">
+        <v>0.127</v>
+      </c>
+      <c r="L79">
+        <v>14.073</v>
+      </c>
+      <c r="M79">
+        <v>2.91500902</v>
+      </c>
+      <c r="N79">
+        <v>11.15799098</v>
+      </c>
+      <c r="O79">
+        <v>3.1242374744</v>
+      </c>
+      <c r="P79">
+        <v>8.0337535056</v>
+      </c>
+      <c r="Q79">
+        <v>8.160753505600001</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1682899925848824</v>
+      </c>
+      <c r="T79">
+        <v>3.368432046289882</v>
+      </c>
+      <c r="U79">
+        <v>0.0226</v>
+      </c>
+      <c r="V79">
+        <v>0.28</v>
+      </c>
+      <c r="W79">
+        <v>0.016272</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>4.827772368265261</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.05117532597016719</v>
+      </c>
+      <c r="C80">
+        <v>50.57034937943124</v>
+      </c>
+      <c r="D80">
+        <v>174.5681493794312</v>
+      </c>
+      <c r="E80">
+        <v>129.6478</v>
+      </c>
+      <c r="F80">
+        <v>130.6578</v>
+      </c>
+      <c r="G80">
+        <v>6.66</v>
+      </c>
+      <c r="H80">
+        <v>166.5</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>14.2</v>
+      </c>
+      <c r="K80">
+        <v>0.127</v>
+      </c>
+      <c r="L80">
+        <v>14.073</v>
+      </c>
+      <c r="M80">
+        <v>2.95286628</v>
+      </c>
+      <c r="N80">
+        <v>11.12013372</v>
+      </c>
+      <c r="O80">
+        <v>3.1136374416</v>
+      </c>
+      <c r="P80">
+        <v>8.006496278399998</v>
+      </c>
+      <c r="Q80">
+        <v>8.133496278399999</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1749234816825782</v>
+      </c>
+      <c r="T80">
+        <v>3.508972069546147</v>
+      </c>
+      <c r="U80">
+        <v>0.0226</v>
+      </c>
+      <c r="V80">
+        <v>0.28</v>
+      </c>
+      <c r="W80">
+        <v>0.016272</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>4.765877850723399</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.05111451364581143</v>
+      </c>
+      <c r="C81">
+        <v>49.07886545789339</v>
+      </c>
+      <c r="D81">
+        <v>174.7517654578934</v>
+      </c>
+      <c r="E81">
+        <v>131.3229</v>
+      </c>
+      <c r="F81">
+        <v>132.3329</v>
+      </c>
+      <c r="G81">
+        <v>6.66</v>
+      </c>
+      <c r="H81">
+        <v>166.5</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>14.2</v>
+      </c>
+      <c r="K81">
+        <v>0.127</v>
+      </c>
+      <c r="L81">
+        <v>14.073</v>
+      </c>
+      <c r="M81">
+        <v>2.99072354</v>
+      </c>
+      <c r="N81">
+        <v>11.08227646</v>
+      </c>
+      <c r="O81">
+        <v>3.1030374088</v>
+      </c>
+      <c r="P81">
+        <v>7.979239051199999</v>
+      </c>
+      <c r="Q81">
+        <v>8.106239051199999</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1821887316467211</v>
+      </c>
+      <c r="T81">
+        <v>3.662896856922057</v>
+      </c>
+      <c r="U81">
+        <v>0.0226</v>
+      </c>
+      <c r="V81">
+        <v>0.28</v>
+      </c>
+      <c r="W81">
+        <v>0.016272</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>4.705550282992723</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.05105370132145565</v>
+      </c>
+      <c r="C82">
+        <v>47.58776820899939</v>
+      </c>
+      <c r="D82">
+        <v>174.9357682089994</v>
+      </c>
+      <c r="E82">
+        <v>132.998</v>
+      </c>
+      <c r="F82">
+        <v>134.008</v>
+      </c>
+      <c r="G82">
+        <v>6.66</v>
+      </c>
+      <c r="H82">
+        <v>166.5</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>14.2</v>
+      </c>
+      <c r="K82">
+        <v>0.127</v>
+      </c>
+      <c r="L82">
+        <v>14.073</v>
+      </c>
+      <c r="M82">
+        <v>3.0285808</v>
+      </c>
+      <c r="N82">
+        <v>11.0444192</v>
+      </c>
+      <c r="O82">
+        <v>3.092437376</v>
+      </c>
+      <c r="P82">
+        <v>7.951981823999999</v>
+      </c>
+      <c r="Q82">
+        <v>8.078981824</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1901805066072783</v>
+      </c>
+      <c r="T82">
+        <v>3.832214123035557</v>
+      </c>
+      <c r="U82">
+        <v>0.0226</v>
+      </c>
+      <c r="V82">
+        <v>0.28</v>
+      </c>
+      <c r="W82">
+        <v>0.016272</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>4.646730904455314</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.05099288899709987</v>
+      </c>
+      <c r="C83">
+        <v>46.09705885546359</v>
+      </c>
+      <c r="D83">
+        <v>175.1201588554636</v>
+      </c>
+      <c r="E83">
+        <v>134.6731</v>
+      </c>
+      <c r="F83">
+        <v>135.6831</v>
+      </c>
+      <c r="G83">
+        <v>6.66</v>
+      </c>
+      <c r="H83">
+        <v>166.5</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>14.2</v>
+      </c>
+      <c r="K83">
+        <v>0.127</v>
+      </c>
+      <c r="L83">
+        <v>14.073</v>
+      </c>
+      <c r="M83">
+        <v>3.06643806</v>
+      </c>
+      <c r="N83">
+        <v>11.00656194</v>
+      </c>
+      <c r="O83">
+        <v>3.0818373432</v>
+      </c>
+      <c r="P83">
+        <v>7.924724596799999</v>
+      </c>
+      <c r="Q83">
+        <v>8.0517245968</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.1990135210373678</v>
+      </c>
+      <c r="T83">
+        <v>4.019354259266268</v>
+      </c>
+      <c r="U83">
+        <v>0.0226</v>
+      </c>
+      <c r="V83">
+        <v>0.28</v>
+      </c>
+      <c r="W83">
+        <v>0.016272</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>4.589363856252163</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.05093207667274412</v>
+      </c>
+      <c r="C84">
+        <v>44.60673862516063</v>
+      </c>
+      <c r="D84">
+        <v>175.3049386251606</v>
+      </c>
+      <c r="E84">
+        <v>136.3482</v>
+      </c>
+      <c r="F84">
+        <v>137.3582</v>
+      </c>
+      <c r="G84">
+        <v>6.66</v>
+      </c>
+      <c r="H84">
+        <v>166.5</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>14.2</v>
+      </c>
+      <c r="K84">
+        <v>0.127</v>
+      </c>
+      <c r="L84">
+        <v>14.073</v>
+      </c>
+      <c r="M84">
+        <v>3.10429532</v>
+      </c>
+      <c r="N84">
+        <v>10.96870468</v>
+      </c>
+      <c r="O84">
+        <v>3.0712373104</v>
+      </c>
+      <c r="P84">
+        <v>7.897467369599998</v>
+      </c>
+      <c r="Q84">
+        <v>8.024467369599998</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2088279815152452</v>
+      </c>
+      <c r="T84">
+        <v>4.227287743967059</v>
+      </c>
+      <c r="U84">
+        <v>0.0226</v>
+      </c>
+      <c r="V84">
+        <v>0.28</v>
+      </c>
+      <c r="W84">
+        <v>0.016272</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>4.533396004346648</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1050851607502969</v>
+      </c>
+      <c r="C85">
+        <v>-41.99198599141629</v>
+      </c>
+      <c r="D85">
+        <v>90.38131400858371</v>
+      </c>
+      <c r="E85">
+        <v>138.0233</v>
+      </c>
+      <c r="F85">
+        <v>139.0333</v>
+      </c>
+      <c r="G85">
+        <v>6.66</v>
+      </c>
+      <c r="H85">
+        <v>166.5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>14.2</v>
+      </c>
+      <c r="K85">
+        <v>0.127</v>
+      </c>
+      <c r="L85">
+        <v>14.073</v>
+      </c>
+      <c r="M85">
+        <v>15.1546297</v>
+      </c>
+      <c r="N85">
+        <v>-1.081629700000001</v>
+      </c>
+      <c r="O85">
+        <v>-0.3028563160000002</v>
+      </c>
+      <c r="P85">
+        <v>-0.7787733840000004</v>
+      </c>
+      <c r="Q85">
+        <v>-0.6517733840000004</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2243457134177146</v>
+      </c>
+      <c r="T85">
+        <v>4.55605325037531</v>
+      </c>
+      <c r="U85">
+        <v>0.109</v>
+      </c>
+      <c r="V85">
+        <v>0.2600155911430815</v>
+      </c>
+      <c r="W85">
+        <v>0.08065830056540411</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.9286271112252911</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1060821607502969</v>
+      </c>
+      <c r="C86">
+        <v>-44.46605286136987</v>
+      </c>
+      <c r="D86">
+        <v>89.58234713863011</v>
+      </c>
+      <c r="E86">
+        <v>139.6984</v>
+      </c>
+      <c r="F86">
+        <v>140.7084</v>
+      </c>
+      <c r="G86">
+        <v>6.66</v>
+      </c>
+      <c r="H86">
+        <v>166.5</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>14.2</v>
+      </c>
+      <c r="K86">
+        <v>0.127</v>
+      </c>
+      <c r="L86">
+        <v>14.073</v>
+      </c>
+      <c r="M86">
+        <v>15.3372156</v>
+      </c>
+      <c r="N86">
+        <v>-1.2642156</v>
+      </c>
+      <c r="O86">
+        <v>-0.353980368</v>
+      </c>
+      <c r="P86">
+        <v>-0.910235232</v>
+      </c>
+      <c r="Q86">
+        <v>-0.783235232</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2377860705063217</v>
+      </c>
+      <c r="T86">
+        <v>4.840806578523765</v>
+      </c>
+      <c r="U86">
+        <v>0.109</v>
+      </c>
+      <c r="V86">
+        <v>0.2569201674389973</v>
+      </c>
+      <c r="W86">
+        <v>0.0809957017491493</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.9175720265678472</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1070791607502969</v>
+      </c>
+      <c r="C87">
+        <v>-46.9261178429079</v>
+      </c>
+      <c r="D87">
+        <v>88.7973821570921</v>
+      </c>
+      <c r="E87">
+        <v>141.3735</v>
+      </c>
+      <c r="F87">
+        <v>142.3835</v>
+      </c>
+      <c r="G87">
+        <v>6.66</v>
+      </c>
+      <c r="H87">
+        <v>166.5</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>14.2</v>
+      </c>
+      <c r="K87">
+        <v>0.127</v>
+      </c>
+      <c r="L87">
+        <v>14.073</v>
+      </c>
+      <c r="M87">
+        <v>15.5198015</v>
+      </c>
+      <c r="N87">
+        <v>-1.446801500000001</v>
+      </c>
+      <c r="O87">
+        <v>-0.4051044200000004</v>
+      </c>
+      <c r="P87">
+        <v>-1.041697080000001</v>
+      </c>
+      <c r="Q87">
+        <v>-0.9146970800000009</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2530184752067431</v>
+      </c>
+      <c r="T87">
+        <v>5.163527017092016</v>
+      </c>
+      <c r="U87">
+        <v>0.109</v>
+      </c>
+      <c r="V87">
+        <v>0.2538975772338325</v>
+      </c>
+      <c r="W87">
+        <v>0.08132516408151225</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.9067770615494019</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1080761607502969</v>
+      </c>
+      <c r="C88">
+        <v>-49.3725458132792</v>
+      </c>
+      <c r="D88">
+        <v>88.02605418672078</v>
+      </c>
+      <c r="E88">
+        <v>143.0486</v>
+      </c>
+      <c r="F88">
+        <v>144.0586</v>
+      </c>
+      <c r="G88">
+        <v>6.66</v>
+      </c>
+      <c r="H88">
+        <v>166.5</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>14.2</v>
+      </c>
+      <c r="K88">
+        <v>0.127</v>
+      </c>
+      <c r="L88">
+        <v>14.073</v>
+      </c>
+      <c r="M88">
+        <v>15.7023874</v>
+      </c>
+      <c r="N88">
+        <v>-1.629387399999999</v>
+      </c>
+      <c r="O88">
+        <v>-0.4562284719999997</v>
+      </c>
+      <c r="P88">
+        <v>-1.173158927999999</v>
+      </c>
+      <c r="Q88">
+        <v>-1.046158927999999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2704269377215104</v>
+      </c>
+      <c r="T88">
+        <v>5.532350375455731</v>
+      </c>
+      <c r="U88">
+        <v>0.109</v>
+      </c>
+      <c r="V88">
+        <v>0.2509452798241368</v>
+      </c>
+      <c r="W88">
+        <v>0.08164696449916908</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.8962331422290601</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1090731607502969</v>
+      </c>
+      <c r="C89">
+        <v>-51.80568908105677</v>
+      </c>
+      <c r="D89">
+        <v>87.26801091894323</v>
+      </c>
+      <c r="E89">
+        <v>144.7237</v>
+      </c>
+      <c r="F89">
+        <v>145.7337</v>
+      </c>
+      <c r="G89">
+        <v>6.66</v>
+      </c>
+      <c r="H89">
+        <v>166.5</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>14.2</v>
+      </c>
+      <c r="K89">
+        <v>0.127</v>
+      </c>
+      <c r="L89">
+        <v>14.073</v>
+      </c>
+      <c r="M89">
+        <v>15.8849733</v>
+      </c>
+      <c r="N89">
+        <v>-1.811973300000002</v>
+      </c>
+      <c r="O89">
+        <v>-0.5073525240000005</v>
+      </c>
+      <c r="P89">
+        <v>-1.304620776000001</v>
+      </c>
+      <c r="Q89">
+        <v>-1.177620776000001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.2905136252385497</v>
+      </c>
+      <c r="T89">
+        <v>5.957915788952326</v>
+      </c>
+      <c r="U89">
+        <v>0.109</v>
+      </c>
+      <c r="V89">
+        <v>0.2480608513204111</v>
+      </c>
+      <c r="W89">
+        <v>0.08196136720607519</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.8859316118586109</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1100701607502969</v>
+      </c>
+      <c r="C90">
+        <v>-54.22588792269724</v>
+      </c>
+      <c r="D90">
+        <v>86.52291207730275</v>
+      </c>
+      <c r="E90">
+        <v>146.3988</v>
+      </c>
+      <c r="F90">
+        <v>147.4088</v>
+      </c>
+      <c r="G90">
+        <v>6.66</v>
+      </c>
+      <c r="H90">
+        <v>166.5</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>14.2</v>
+      </c>
+      <c r="K90">
+        <v>0.127</v>
+      </c>
+      <c r="L90">
+        <v>14.073</v>
+      </c>
+      <c r="M90">
+        <v>16.0675592</v>
+      </c>
+      <c r="N90">
+        <v>-1.994559199999999</v>
+      </c>
+      <c r="O90">
+        <v>-0.5584765759999999</v>
+      </c>
+      <c r="P90">
+        <v>-1.436082624</v>
+      </c>
+      <c r="Q90">
+        <v>-1.309082624</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3139480940084289</v>
+      </c>
+      <c r="T90">
+        <v>6.45440877136502</v>
+      </c>
+      <c r="U90">
+        <v>0.109</v>
+      </c>
+      <c r="V90">
+        <v>0.2452419780099519</v>
+      </c>
+      <c r="W90">
+        <v>0.08226862439691524</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.8758642071783996</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1110671607502969</v>
+      </c>
+      <c r="C91">
+        <v>-56.63347109184704</v>
+      </c>
+      <c r="D91">
+        <v>85.79042890815296</v>
+      </c>
+      <c r="E91">
+        <v>148.0739</v>
+      </c>
+      <c r="F91">
+        <v>149.0839</v>
+      </c>
+      <c r="G91">
+        <v>6.66</v>
+      </c>
+      <c r="H91">
+        <v>166.5</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>14.2</v>
+      </c>
+      <c r="K91">
+        <v>0.127</v>
+      </c>
+      <c r="L91">
+        <v>14.073</v>
+      </c>
+      <c r="M91">
+        <v>16.2501451</v>
+      </c>
+      <c r="N91">
+        <v>-2.177145100000002</v>
+      </c>
+      <c r="O91">
+        <v>-0.6096006280000007</v>
+      </c>
+      <c r="P91">
+        <v>-1.567544472000002</v>
+      </c>
+      <c r="Q91">
+        <v>-1.440544472000002</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3416433752819225</v>
+      </c>
+      <c r="T91">
+        <v>7.041173205125477</v>
+      </c>
+      <c r="U91">
+        <v>0.109</v>
+      </c>
+      <c r="V91">
+        <v>0.2424864501671434</v>
+      </c>
+      <c r="W91">
+        <v>0.08256897693178136</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.8660230363112265</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1120641607502969</v>
+      </c>
+      <c r="C92">
+        <v>-59.02875630299494</v>
+      </c>
+      <c r="D92">
+        <v>85.07024369700505</v>
+      </c>
+      <c r="E92">
+        <v>149.749</v>
+      </c>
+      <c r="F92">
+        <v>150.759</v>
+      </c>
+      <c r="G92">
+        <v>6.66</v>
+      </c>
+      <c r="H92">
+        <v>166.5</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>14.2</v>
+      </c>
+      <c r="K92">
+        <v>0.127</v>
+      </c>
+      <c r="L92">
+        <v>14.073</v>
+      </c>
+      <c r="M92">
+        <v>16.432731</v>
+      </c>
+      <c r="N92">
+        <v>-2.359730999999998</v>
+      </c>
+      <c r="O92">
+        <v>-0.6607246799999996</v>
+      </c>
+      <c r="P92">
+        <v>-1.699006319999999</v>
+      </c>
+      <c r="Q92">
+        <v>-1.572006319999999</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3748777128101148</v>
+      </c>
+      <c r="T92">
+        <v>7.745290525638026</v>
+      </c>
+      <c r="U92">
+        <v>0.109</v>
+      </c>
+      <c r="V92">
+        <v>0.2397921562763974</v>
+      </c>
+      <c r="W92">
+        <v>0.08286265496587268</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.8564005581299907</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1130611607502969</v>
+      </c>
+      <c r="C93">
+        <v>-61.41205069096733</v>
+      </c>
+      <c r="D93">
+        <v>84.36204930903267</v>
+      </c>
+      <c r="E93">
+        <v>151.4241</v>
+      </c>
+      <c r="F93">
+        <v>152.4341</v>
+      </c>
+      <c r="G93">
+        <v>6.66</v>
+      </c>
+      <c r="H93">
+        <v>166.5</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>14.2</v>
+      </c>
+      <c r="K93">
+        <v>0.127</v>
+      </c>
+      <c r="L93">
+        <v>14.073</v>
+      </c>
+      <c r="M93">
+        <v>16.6153169</v>
+      </c>
+      <c r="N93">
+        <v>-2.542316900000001</v>
+      </c>
+      <c r="O93">
+        <v>-0.7118487320000004</v>
+      </c>
+      <c r="P93">
+        <v>-1.830468168000001</v>
+      </c>
+      <c r="Q93">
+        <v>-1.703468168000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4154974586779053</v>
+      </c>
+      <c r="T93">
+        <v>8.605878361820029</v>
+      </c>
+      <c r="U93">
+        <v>0.109</v>
+      </c>
+      <c r="V93">
+        <v>0.2371570776359974</v>
+      </c>
+      <c r="W93">
+        <v>0.08314987853767628</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.8469895629857049</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1140581607502969</v>
+      </c>
+      <c r="C94">
+        <v>-63.78365124766106</v>
+      </c>
+      <c r="D94">
+        <v>83.66554875233894</v>
+      </c>
+      <c r="E94">
+        <v>153.0992</v>
+      </c>
+      <c r="F94">
+        <v>154.1092</v>
+      </c>
+      <c r="G94">
+        <v>6.66</v>
+      </c>
+      <c r="H94">
+        <v>166.5</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>14.2</v>
+      </c>
+      <c r="K94">
+        <v>0.127</v>
+      </c>
+      <c r="L94">
+        <v>14.073</v>
+      </c>
+      <c r="M94">
+        <v>16.7979028</v>
+      </c>
+      <c r="N94">
+        <v>-2.724902800000001</v>
+      </c>
+      <c r="O94">
+        <v>-0.7629727840000002</v>
+      </c>
+      <c r="P94">
+        <v>-1.961930016</v>
+      </c>
+      <c r="Q94">
+        <v>-1.834930016</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4662721410126437</v>
+      </c>
+      <c r="T94">
+        <v>9.681613157047536</v>
+      </c>
+      <c r="U94">
+        <v>0.109</v>
+      </c>
+      <c r="V94">
+        <v>0.234579283313867</v>
+      </c>
+      <c r="W94">
+        <v>0.08343085811878849</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.8377831546923822</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1150551607502969</v>
+      </c>
+      <c r="C95">
+        <v>-66.14384523731975</v>
+      </c>
+      <c r="D95">
+        <v>82.98045476268025</v>
+      </c>
+      <c r="E95">
+        <v>154.7743</v>
+      </c>
+      <c r="F95">
+        <v>155.7843</v>
+      </c>
+      <c r="G95">
+        <v>6.66</v>
+      </c>
+      <c r="H95">
+        <v>166.5</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>14.2</v>
+      </c>
+      <c r="K95">
+        <v>0.127</v>
+      </c>
+      <c r="L95">
+        <v>14.073</v>
+      </c>
+      <c r="M95">
+        <v>16.9804887</v>
+      </c>
+      <c r="N95">
+        <v>-2.9074887</v>
+      </c>
+      <c r="O95">
+        <v>-0.814096836</v>
+      </c>
+      <c r="P95">
+        <v>-2.093391864</v>
+      </c>
+      <c r="Q95">
+        <v>-1.966391864</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5315538754430214</v>
+      </c>
+      <c r="T95">
+        <v>11.06470075091147</v>
+      </c>
+      <c r="U95">
+        <v>0.109</v>
+      </c>
+      <c r="V95">
+        <v>0.2320569254287717</v>
+      </c>
+      <c r="W95">
+        <v>0.08370579512826389</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.8287747336741845</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1160521607502969</v>
+      </c>
+      <c r="C96">
+        <v>-68.49291059157247</v>
+      </c>
+      <c r="D96">
+        <v>82.30648940842752</v>
+      </c>
+      <c r="E96">
+        <v>156.4494</v>
+      </c>
+      <c r="F96">
+        <v>157.4594</v>
+      </c>
+      <c r="G96">
+        <v>6.66</v>
+      </c>
+      <c r="H96">
+        <v>166.5</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>14.2</v>
+      </c>
+      <c r="K96">
+        <v>0.127</v>
+      </c>
+      <c r="L96">
+        <v>14.073</v>
+      </c>
+      <c r="M96">
+        <v>17.1630746</v>
+      </c>
+      <c r="N96">
+        <v>-3.090074599999999</v>
+      </c>
+      <c r="O96">
+        <v>-0.865220888</v>
+      </c>
+      <c r="P96">
+        <v>-2.224853711999999</v>
+      </c>
+      <c r="Q96">
+        <v>-2.097853711999999</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6185961880168585</v>
+      </c>
+      <c r="T96">
+        <v>12.90881754273005</v>
+      </c>
+      <c r="U96">
+        <v>0.109</v>
+      </c>
+      <c r="V96">
+        <v>0.2295882347327209</v>
+      </c>
+      <c r="W96">
+        <v>0.08397488241413342</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.819957981188289</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1170491607502969</v>
+      </c>
+      <c r="C97">
+        <v>-70.83111628537695</v>
+      </c>
+      <c r="D97">
+        <v>81.64338371462306</v>
+      </c>
+      <c r="E97">
+        <v>158.1245</v>
+      </c>
+      <c r="F97">
+        <v>159.1345</v>
+      </c>
+      <c r="G97">
+        <v>6.66</v>
+      </c>
+      <c r="H97">
+        <v>166.5</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>14.2</v>
+      </c>
+      <c r="K97">
+        <v>0.127</v>
+      </c>
+      <c r="L97">
+        <v>14.073</v>
+      </c>
+      <c r="M97">
+        <v>17.3456605</v>
+      </c>
+      <c r="N97">
+        <v>-3.272660500000002</v>
+      </c>
+      <c r="O97">
+        <v>-0.9163449400000008</v>
+      </c>
+      <c r="P97">
+        <v>-2.356315560000001</v>
+      </c>
+      <c r="Q97">
+        <v>-2.229315560000002</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.7404554256202305</v>
+      </c>
+      <c r="T97">
+        <v>15.49058105127607</v>
+      </c>
+      <c r="U97">
+        <v>0.109</v>
+      </c>
+      <c r="V97">
+        <v>0.2271715164723765</v>
+      </c>
+      <c r="W97">
+        <v>0.08423830470451096</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.8113268445442016</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1180461607502969</v>
+      </c>
+      <c r="C98">
+        <v>-73.15872269493482</v>
+      </c>
+      <c r="D98">
+        <v>80.99087730506517</v>
+      </c>
+      <c r="E98">
+        <v>159.7996</v>
+      </c>
+      <c r="F98">
+        <v>160.8096</v>
+      </c>
+      <c r="G98">
+        <v>6.66</v>
+      </c>
+      <c r="H98">
+        <v>166.5</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>14.2</v>
+      </c>
+      <c r="K98">
+        <v>0.127</v>
+      </c>
+      <c r="L98">
+        <v>14.073</v>
+      </c>
+      <c r="M98">
+        <v>17.5282464</v>
+      </c>
+      <c r="N98">
+        <v>-3.455246400000002</v>
+      </c>
+      <c r="O98">
+        <v>-0.9674689920000006</v>
+      </c>
+      <c r="P98">
+        <v>-2.487777408000001</v>
+      </c>
+      <c r="Q98">
+        <v>-2.360777408000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.9232442820252861</v>
+      </c>
+      <c r="T98">
+        <v>19.36322631409504</v>
+      </c>
+      <c r="U98">
+        <v>0.109</v>
+      </c>
+      <c r="V98">
+        <v>0.2248051465091226</v>
+      </c>
+      <c r="W98">
+        <v>0.08449623903050564</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.8028755232468662</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.1515461092442616</v>
+      </c>
+      <c r="C99">
+        <v>-91.97907592100455</v>
+      </c>
+      <c r="D99">
+        <v>63.84562407899543</v>
+      </c>
+      <c r="E99">
+        <v>161.4747</v>
+      </c>
+      <c r="F99">
+        <v>162.4847</v>
+      </c>
+      <c r="G99">
+        <v>6.66</v>
+      </c>
+      <c r="H99">
+        <v>166.5</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>14.2</v>
+      </c>
+      <c r="K99">
+        <v>0.127</v>
+      </c>
+      <c r="L99">
+        <v>14.073</v>
+      </c>
+      <c r="M99">
+        <v>22.78035494</v>
+      </c>
+      <c r="N99">
+        <v>-8.707354939999997</v>
+      </c>
+      <c r="O99">
+        <v>-2.438059383199999</v>
+      </c>
+      <c r="P99">
+        <v>-6.269295556799998</v>
+      </c>
+      <c r="Q99">
+        <v>-6.142295556799998</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.302523992499206</v>
+      </c>
+      <c r="T99">
+        <v>27.3988134004069</v>
+      </c>
+      <c r="U99">
+        <v>0.1402</v>
+      </c>
+      <c r="V99">
+        <v>0.1729753557562436</v>
+      </c>
+      <c r="W99">
+        <v>0.1159488551229746</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.6177691277008699</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1528551092442616</v>
+      </c>
+      <c r="C100">
+        <v>-94.17796543101181</v>
+      </c>
+      <c r="D100">
+        <v>63.32183456898817</v>
+      </c>
+      <c r="E100">
+        <v>163.1498</v>
+      </c>
+      <c r="F100">
+        <v>164.1598</v>
+      </c>
+      <c r="G100">
+        <v>6.66</v>
+      </c>
+      <c r="H100">
+        <v>166.5</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>14.2</v>
+      </c>
+      <c r="K100">
+        <v>0.127</v>
+      </c>
+      <c r="L100">
+        <v>14.073</v>
+      </c>
+      <c r="M100">
+        <v>23.01520396</v>
+      </c>
+      <c r="N100">
+        <v>-8.942203959999999</v>
+      </c>
+      <c r="O100">
+        <v>-2.5038171088</v>
+      </c>
+      <c r="P100">
+        <v>-6.438386851199999</v>
+      </c>
+      <c r="Q100">
+        <v>-6.311386851199999</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.949135988748809</v>
+      </c>
+      <c r="T100">
+        <v>41.09822010061036</v>
+      </c>
+      <c r="U100">
+        <v>0.1402</v>
+      </c>
+      <c r="V100">
+        <v>0.1712103011056696</v>
+      </c>
+      <c r="W100">
+        <v>0.1161963157849851</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.6114653610916773</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1541641092442616</v>
+      </c>
+      <c r="C101">
+        <v>-96.36833053678738</v>
+      </c>
+      <c r="D101">
+        <v>62.8065694632126</v>
+      </c>
+      <c r="E101">
+        <v>164.8249</v>
+      </c>
+      <c r="F101">
+        <v>165.8349</v>
+      </c>
+      <c r="G101">
+        <v>6.66</v>
+      </c>
+      <c r="H101">
+        <v>166.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>14.2</v>
+      </c>
+      <c r="K101">
+        <v>0.127</v>
+      </c>
+      <c r="L101">
+        <v>14.073</v>
+      </c>
+      <c r="M101">
+        <v>23.25005298</v>
+      </c>
+      <c r="N101">
+        <v>-9.177052979999997</v>
+      </c>
+      <c r="O101">
+        <v>-2.5695748344</v>
+      </c>
+      <c r="P101">
+        <v>-6.607478145599998</v>
+      </c>
+      <c r="Q101">
+        <v>-6.480478145599998</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.888971977497617</v>
+      </c>
+      <c r="T101">
+        <v>82.1964402012207</v>
+      </c>
+      <c r="U101">
+        <v>0.1402</v>
+      </c>
+      <c r="V101">
+        <v>0.1694809041248043</v>
+      </c>
+      <c r="W101">
+        <v>0.1164387772417024</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.6052889433028725</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
